--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -5,18 +5,19 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Library/Containers/com.microsoft.Excel/Data/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8DF245-E4B1-2A4B-BEDA-C9C59CA678C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F014660-4FB6-C04F-9B4D-4C2052334D8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="race" sheetId="1" r:id="rId1"/>
     <sheet name="pettys" sheetId="2" r:id="rId2"/>
-    <sheet name="source" sheetId="5" r:id="rId3"/>
-    <sheet name="layout" sheetId="6" r:id="rId4"/>
+    <sheet name="dispensaries" sheetId="7" r:id="rId3"/>
+    <sheet name="source" sheetId="5" r:id="rId4"/>
+    <sheet name="layout" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12386" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12417" uniqueCount="160">
   <si>
     <t>Case_Count</t>
   </si>
@@ -448,6 +449,66 @@
   </si>
   <si>
     <t>Number of cases in 2018</t>
+  </si>
+  <si>
+    <t>dispensaries</t>
+  </si>
+  <si>
+    <t>Minnesota medical cannabis dispensary location</t>
+  </si>
+  <si>
+    <t>Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Bloomington</t>
+  </si>
+  <si>
+    <t>Brooklyn Park</t>
+  </si>
+  <si>
+    <t>Duluth</t>
+  </si>
+  <si>
+    <t>Eagan</t>
+  </si>
+  <si>
+    <t>Hibbing</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>Moorhead</t>
+  </si>
+  <si>
+    <t>Plymouth</t>
+  </si>
+  <si>
+    <t>Rochester</t>
+  </si>
+  <si>
+    <t>St. Cloud</t>
+  </si>
+  <si>
+    <t>St. Paul</t>
+  </si>
+  <si>
+    <t>Woodbury</t>
+  </si>
+  <si>
+    <t>MN</t>
   </si>
 </sst>
 </file>
@@ -83264,17 +83325,214 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DF53AB-C788-8D47-81A3-6CDF1DE4D8EA}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2">
+        <v>44.826248</v>
+      </c>
+      <c r="D2">
+        <v>-93.303864000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C3">
+        <v>45.119515</v>
+      </c>
+      <c r="D3">
+        <v>-93.350514000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C4">
+        <v>46.798678000000002</v>
+      </c>
+      <c r="D4">
+        <v>-92.122041999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C5">
+        <v>44.818415000000002</v>
+      </c>
+      <c r="D5">
+        <v>-93.163792000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6">
+        <v>47.377509000000003</v>
+      </c>
+      <c r="D6">
+        <v>-92.939787999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C7">
+        <v>44.977488999999998</v>
+      </c>
+      <c r="D7">
+        <v>-93.264374000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C8">
+        <v>46.858856000000003</v>
+      </c>
+      <c r="D8">
+        <v>-96.748786999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9">
+        <v>45.022072999999999</v>
+      </c>
+      <c r="D9">
+        <v>-93.466348999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10">
+        <v>44.019328999999999</v>
+      </c>
+      <c r="D10">
+        <v>-92.458870000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11">
+        <v>45.521875999999999</v>
+      </c>
+      <c r="D11">
+        <v>-94.182100000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C12">
+        <v>44.953040000000001</v>
+      </c>
+      <c r="D12">
+        <v>-93.090130000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="C13">
+        <v>44.905405999999999</v>
+      </c>
+      <c r="D13">
+        <v>-92.923013999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:A8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
@@ -83318,6 +83576,17 @@
       </c>
       <c r="C8" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -83331,11 +83600,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F014660-4FB6-C04F-9B4D-4C2052334D8A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADAC096-0800-2341-8E01-07C1A8CC73F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="race" sheetId="1" r:id="rId1"/>
-    <sheet name="pettys" sheetId="2" r:id="rId2"/>
-    <sheet name="dispensaries" sheetId="7" r:id="rId3"/>
-    <sheet name="source" sheetId="5" r:id="rId4"/>
-    <sheet name="layout" sheetId="6" r:id="rId5"/>
+    <sheet name="states" sheetId="8" r:id="rId1"/>
+    <sheet name="polls" sheetId="9" r:id="rId2"/>
+    <sheet name="race" sheetId="1" r:id="rId3"/>
+    <sheet name="pettys" sheetId="2" r:id="rId4"/>
+    <sheet name="dispensaries" sheetId="7" r:id="rId5"/>
+    <sheet name="source" sheetId="5" r:id="rId6"/>
+    <sheet name="layout" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140001"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12417" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12666" uniqueCount="296">
   <si>
     <t>Case_Count</t>
   </si>
@@ -352,9 +354,6 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>Source: Minnesota Department of Health, Minnesota Supreme Court, Star Tribune analysis</t>
-  </si>
-  <si>
     <t>tab</t>
   </si>
   <si>
@@ -510,6 +509,417 @@
   <si>
     <t>MN</t>
   </si>
+  <si>
+    <t>STATE</t>
+  </si>
+  <si>
+    <t>ILLEGAL</t>
+  </si>
+  <si>
+    <t>LIMITED MEDICAL</t>
+  </si>
+  <si>
+    <t>MEDICAL</t>
+  </si>
+  <si>
+    <t>REC - NO SALES</t>
+  </si>
+  <si>
+    <t>REC-SALES</t>
+  </si>
+  <si>
+    <t>NOTES</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>High-CBD/low-THC oil only</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>District of Columbia</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Recreational sales regulations pending</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Low-THC oil only</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>No mechanism for recreational sales authorized; Medical sales only.</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>High-CBD or THCA-A/low-THC oil only</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>states</t>
+  </si>
+  <si>
+    <t>Marijuana legal status by state</t>
+  </si>
+  <si>
+    <t>State name</t>
+  </si>
+  <si>
+    <t>State abbreviation</t>
+  </si>
+  <si>
+    <t>Illegal status</t>
+  </si>
+  <si>
+    <t>Limited medical status</t>
+  </si>
+  <si>
+    <t>Medical status</t>
+  </si>
+  <si>
+    <t>Recreational use but no sales status</t>
+  </si>
+  <si>
+    <t>Recreational sales status</t>
+  </si>
+  <si>
+    <t>Additional notes</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>midwest</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>polls</t>
+  </si>
+  <si>
+    <t>Marijuana legalization support over time</t>
+  </si>
+  <si>
+    <t>Gallup</t>
+  </si>
+  <si>
+    <t>Source: Minnesota Department of Health, Minnesota Supreme Court, Gallup, Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>Marijuana legalization support in the Midwest</t>
+  </si>
+  <si>
+    <t>Marijuana legalization support in the U.S.</t>
+  </si>
+  <si>
+    <t>Data year</t>
+  </si>
+  <si>
+    <t>convictions</t>
+  </si>
+  <si>
+    <t>Number of convictions for marijuana-related charges in Minnesota</t>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +1016,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -625,6 +1035,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -979,6 +1395,1212 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAE6105-103E-2847-B3C1-FB91C0EB3849}">
+  <dimension ref="A1:H52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="3" max="3" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="54.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A23" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="9"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="9"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" s="9"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A30" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>238</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>239</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H36" s="9"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H42" s="9"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H43" s="9"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E46" s="9"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A47" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="9"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9"/>
+      <c r="H48" s="9" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9"/>
+      <c r="G50" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H50" s="9"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9"/>
+      <c r="F51" s="9"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="9"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E52" s="9"/>
+      <c r="F52" s="9"/>
+      <c r="G52" s="9"/>
+      <c r="H52" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H52">
+    <sortCondition descending="1" ref="E1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBA27AF-D291-7D48-961F-A16DAFC08646}">
+  <dimension ref="A1:D21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>284</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.41</v>
+      </c>
+      <c r="D12" s="10">
+        <v>4098</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C13" s="10">
+        <v>0.54</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4310</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="C14" s="10">
+        <v>0.44</v>
+      </c>
+      <c r="D14" s="10">
+        <v>4321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C15" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D15" s="10">
+        <v>4518</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="C16" s="10">
+        <v>0.45</v>
+      </c>
+      <c r="D16" s="10">
+        <v>5047</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="C20" s="10">
+        <v>0.65</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>286</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4104"/>
   <sheetViews>
@@ -83079,7 +84701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -83118,16 +84740,16 @@
         <v>100</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>101</v>
@@ -83311,282 +84933,6 @@
       <c r="M6" s="7"/>
       <c r="N6" s="7">
         <v>46994</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DF53AB-C788-8D47-81A3-6CDF1DE4D8EA}">
-  <dimension ref="A1:D13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C2">
-        <v>44.826248</v>
-      </c>
-      <c r="D2">
-        <v>-93.303864000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C3">
-        <v>45.119515</v>
-      </c>
-      <c r="D3">
-        <v>-93.350514000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C4">
-        <v>46.798678000000002</v>
-      </c>
-      <c r="D4">
-        <v>-92.122041999999993</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5">
-        <v>44.818415000000002</v>
-      </c>
-      <c r="D5">
-        <v>-93.163792000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C6">
-        <v>47.377509000000003</v>
-      </c>
-      <c r="D6">
-        <v>-92.939787999999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7">
-        <v>44.977488999999998</v>
-      </c>
-      <c r="D7">
-        <v>-93.264374000000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C8">
-        <v>46.858856000000003</v>
-      </c>
-      <c r="D8">
-        <v>-96.748786999999993</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C9">
-        <v>45.022072999999999</v>
-      </c>
-      <c r="D9">
-        <v>-93.466348999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10">
-        <v>44.019328999999999</v>
-      </c>
-      <c r="D10">
-        <v>-92.458870000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11">
-        <v>45.521875999999999</v>
-      </c>
-      <c r="D11">
-        <v>-94.182100000000005</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C12">
-        <v>44.953040000000001</v>
-      </c>
-      <c r="D12">
-        <v>-93.090130000000002</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C13">
-        <v>44.905405999999999</v>
-      </c>
-      <c r="D13">
-        <v>-92.923013999999995</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>112</v>
-      </c>
-      <c r="B7" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -83601,11 +84947,309 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:B24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DF53AB-C788-8D47-81A3-6CDF1DE4D8EA}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2">
+        <v>44.826248</v>
+      </c>
+      <c r="D2">
+        <v>-93.303864000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C3">
+        <v>45.119515</v>
+      </c>
+      <c r="D3">
+        <v>-93.350514000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4">
+        <v>46.798678000000002</v>
+      </c>
+      <c r="D4">
+        <v>-92.122041999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5">
+        <v>44.818415000000002</v>
+      </c>
+      <c r="D5">
+        <v>-93.163792000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C6">
+        <v>47.377509000000003</v>
+      </c>
+      <c r="D6">
+        <v>-92.939787999999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7">
+        <v>44.977488999999998</v>
+      </c>
+      <c r="D7">
+        <v>-93.264374000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8">
+        <v>46.858856000000003</v>
+      </c>
+      <c r="D8">
+        <v>-96.748786999999993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9">
+        <v>45.022072999999999</v>
+      </c>
+      <c r="D9">
+        <v>-93.466348999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10">
+        <v>44.019328999999999</v>
+      </c>
+      <c r="D10">
+        <v>-92.458870000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C11">
+        <v>45.521875999999999</v>
+      </c>
+      <c r="D11">
+        <v>-94.182100000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C12">
+        <v>44.953040000000001</v>
+      </c>
+      <c r="D12">
+        <v>-93.090130000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13">
+        <v>44.905405999999999</v>
+      </c>
+      <c r="D13">
+        <v>-92.923013999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="9" t="s">
+        <v>287</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>288</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B9" t="s">
+        <v>113</v>
+      </c>
+      <c r="C9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:B40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -83613,174 +85257,280 @@
     <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>112</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>116</v>
+        <v>159</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>117</v>
+        <v>222</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
+        <v>160</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>119</v>
+        <v>161</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" t="s">
-        <v>120</v>
+        <v>162</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>121</v>
+        <v>163</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" s="8" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B11" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B12" t="s">
-        <v>123</v>
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" t="s">
-        <v>124</v>
+      <c r="A13" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" t="s">
-        <v>95</v>
-      </c>
-      <c r="B14" t="s">
-        <v>125</v>
+      <c r="A14" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
+      <c r="A15" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" t="s">
-        <v>97</v>
-      </c>
-      <c r="B16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>98</v>
-      </c>
-      <c r="B17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" t="s">
-        <v>129</v>
+      <c r="A16" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="8" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>132</v>
+      <c r="A20" t="s">
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>133</v>
+      <c r="A21" t="s">
+        <v>2</v>
       </c>
       <c r="B21" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>134</v>
+      <c r="A22" t="s">
+        <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" s="9" t="s">
-        <v>135</v>
+      <c r="A23" t="s">
+        <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>98</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>99</v>
+      </c>
+      <c r="B34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>100</v>
+      </c>
+      <c r="B35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
         <v>101</v>
       </c>
-      <c r="B24" t="s">
-        <v>131</v>
+      <c r="B40" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ADAC096-0800-2341-8E01-07C1A8CC73F7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9387F59-D9F6-0E47-8479-171817653E9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="620" windowWidth="23640" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12666" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12678" uniqueCount="300">
   <si>
     <t>Case_Count</t>
   </si>
@@ -681,9 +681,6 @@
     <t>Vermont</t>
   </si>
   <si>
-    <t>No mechanism for recreational sales authorized; Medical sales only.</t>
-  </si>
-  <si>
     <t>Virginia</t>
   </si>
   <si>
@@ -919,6 +916,21 @@
   </si>
   <si>
     <t>Number of convictions for marijuana-related charges in Minnesota</t>
+  </si>
+  <si>
+    <t>decriminalized</t>
+  </si>
+  <si>
+    <t>High-CBD/low-THC oil only, decriminalized</t>
+  </si>
+  <si>
+    <t>No mechanism for recreational sales authorized; Medical sales only, decriminalized</t>
+  </si>
+  <si>
+    <t>Recreational sales regulations pending, decriminalized</t>
+  </si>
+  <si>
+    <t>REVENUE_MILLIONS</t>
   </si>
 </sst>
 </file>
@@ -1396,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAE6105-103E-2847-B3C1-FB91C0EB3849}">
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1411,14 +1423,15 @@
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C1" s="8" t="s">
         <v>160</v>
@@ -1438,13 +1451,16 @@
       <c r="H1" s="8" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I1" s="8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1454,13 +1470,16 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I2">
+        <v>406.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1470,13 +1489,16 @@
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I3">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>229</v>
+        <v>260</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1485,14 +1507,19 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H4" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I4">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1502,13 +1529,16 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I5">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1517,14 +1547,19 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H6" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1533,14 +1568,19 @@
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H7" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I7">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1550,13 +1590,16 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I8">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1566,13 +1609,16 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I9">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1582,13 +1628,16 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I10">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>158</v>
+        <v>233</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1598,13 +1647,16 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I11">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>247</v>
+        <v>158</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1613,14 +1665,19 @@
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H12" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I12">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1630,13 +1687,16 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I13">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1645,14 +1705,19 @@
       </c>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H14" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I14">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>251</v>
+        <v>225</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1663,12 +1728,12 @@
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1679,12 +1744,12 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1693,14 +1758,16 @@
       </c>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H17" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1711,12 +1778,12 @@
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1727,12 +1794,12 @@
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1741,14 +1808,16 @@
       </c>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H20" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1759,12 +1828,12 @@
       <c r="G21" s="9"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1775,12 +1844,12 @@
       <c r="G22" s="9"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>214</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1791,12 +1860,12 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1807,12 +1876,12 @@
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1821,32 +1890,38 @@
       <c r="G25" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H25" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I25">
+        <v>2750</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="D26" s="9"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G26" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="9"/>
+      <c r="I26">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>172</v>
+        <v>87</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1856,13 +1931,16 @@
         <v>167</v>
       </c>
       <c r="H27" s="9"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I27">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>173</v>
+        <v>206</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1872,185 +1950,208 @@
         <v>167</v>
       </c>
       <c r="H28" s="9"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I28">
+        <v>777.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>231</v>
+        <v>245</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="9" t="s">
+      <c r="F29" s="9"/>
+      <c r="G29" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H29" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I29">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="D30" s="9"/>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
+      <c r="G30" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="H30" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="I30">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>238</v>
+        <v>223</v>
       </c>
       <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="D31" s="9"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G31" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H31" s="9"/>
+      <c r="I31">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C32" s="9" t="s">
-        <v>167</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
+      <c r="F32" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H32" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I32">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+      <c r="I33">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C34" s="9" t="s">
-        <v>167</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+      <c r="F34" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I34">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>185</v>
+        <v>215</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>240</v>
+        <v>266</v>
       </c>
       <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
       <c r="G35" s="9"/>
       <c r="H35" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
+      <c r="D36" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
-      <c r="G36" s="9" t="s">
+      <c r="G36" s="9"/>
+      <c r="H36" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H36" s="9"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="F37" s="9"/>
       <c r="G37" s="9"/>
       <c r="H37" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="C38" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="F38" s="9"/>
       <c r="G38" s="9"/>
-      <c r="H38" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9" t="s">
@@ -2063,12 +2164,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9" t="s">
@@ -2081,12 +2182,12 @@
         <v>168</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="C41" s="9" t="s">
         <v>167</v>
@@ -2097,78 +2198,84 @@
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
+      <c r="D42" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
-      <c r="G42" s="9" t="s">
+      <c r="G42" s="9"/>
+      <c r="H42" s="9" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H42" s="9"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
+      <c r="G43" s="9"/>
+      <c r="H43" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>248</v>
+      </c>
+      <c r="C44" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H43" s="9"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="B44" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="D44" s="9"/>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="C45" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H45" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9" t="s">
@@ -2178,33 +2285,31 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.15">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
+        <v>262</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="D47" s="9"/>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="H47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9" t="s">
@@ -2214,49 +2319,51 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="9"/>
+      <c r="D49" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="F49" s="9"/>
       <c r="G49" s="9"/>
       <c r="H49" s="9" t="s">
-        <v>216</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
+      <c r="D50" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H50" s="9"/>
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C51" s="9" t="s">
         <v>167</v>
@@ -2269,10 +2376,10 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9" t="s">
@@ -2286,7 +2393,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:H52">
+  <sortState ref="A2:I52">
     <sortCondition descending="1" ref="E1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2305,16 +2412,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>285</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -2325,10 +2432,10 @@
         <v>0.31</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -2336,13 +2443,13 @@
         <v>2001</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -2350,13 +2457,13 @@
         <v>2002</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
@@ -2367,10 +2474,10 @@
         <v>0.34</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -2378,13 +2485,13 @@
         <v>2004</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
@@ -2395,10 +2502,10 @@
         <v>0.36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
@@ -2406,13 +2513,13 @@
         <v>2006</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
@@ -2420,13 +2527,13 @@
         <v>2007</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -2434,13 +2541,13 @@
         <v>2008</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -2448,7 +2555,7 @@
         <v>2009</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C11" s="10">
         <v>0.4</v>
@@ -2474,7 +2581,7 @@
         <v>2011</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" s="10">
         <v>0.54</v>
@@ -2533,10 +2640,10 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
@@ -2544,13 +2651,13 @@
         <v>2016</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
@@ -2561,10 +2668,10 @@
         <v>0.64</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
@@ -2578,7 +2685,7 @@
         <v>0.65</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
@@ -2586,13 +2693,13 @@
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -85159,7 +85266,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -85180,10 +85287,10 @@
     </row>
     <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>273</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>274</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>141</v>
@@ -85191,13 +85298,13 @@
     </row>
     <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="C8" s="9" t="s">
         <v>288</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -85248,7 +85355,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -85259,7 +85366,7 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -85267,15 +85374,15 @@
         <v>159</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -85283,7 +85390,7 @@
         <v>160</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -85291,7 +85398,7 @@
         <v>161</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
@@ -85299,7 +85406,7 @@
         <v>162</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -85307,7 +85414,7 @@
         <v>163</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -85315,7 +85422,7 @@
         <v>164</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -85323,44 +85430,44 @@
         <v>165</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
+        <v>293</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>294</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9387F59-D9F6-0E47-8479-171817653E9D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C861B26-E9A6-A64D-9345-30948F198A3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="620" windowWidth="23640" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2680" yWindow="620" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
@@ -21,8 +21,13 @@
     <sheet name="source" sheetId="5" r:id="rId6"/>
     <sheet name="layout" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12678" uniqueCount="300">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12717" uniqueCount="308">
   <si>
     <t>Case_Count</t>
   </si>
@@ -932,12 +937,36 @@
   <si>
     <t>REVENUE_MILLIONS</t>
   </si>
+  <si>
+    <t>revenue</t>
+  </si>
+  <si>
+    <t>https://www.azcentral.com/story/money/business/health/2019/01/15/arizona-medical-marijuana-sales-topped-400-million-2018/2580119002/</t>
+  </si>
+  <si>
+    <t>arrests</t>
+  </si>
+  <si>
+    <t>https://norml.org/legal/item/minnesota-3</t>
+  </si>
+  <si>
+    <t>https://norml.org/data/item/minnesota-marijuana-arrests?category_id=867</t>
+  </si>
+  <si>
+    <t>possession</t>
+  </si>
+  <si>
+    <t>https://crime-data-explorer.fr.cloud.gov/explorer/state/minnesota/arrest/2007/2017</t>
+  </si>
+  <si>
+    <t>sales</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -991,6 +1020,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF31515F"/>
+      <name val="Courier"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1028,7 +1063,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1053,6 +1088,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1408,10 +1445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAE6105-103E-2847-B3C1-FB91C0EB3849}">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD32"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1426,7 +1463,7 @@
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>159</v>
       </c>
@@ -1454,13 +1491,22 @@
       <c r="I1" s="8" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -1471,15 +1517,15 @@
       <c r="G2" s="9"/>
       <c r="H2" s="9"/>
       <c r="I2">
-        <v>406.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -1490,15 +1536,15 @@
       <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3">
-        <v>91.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1511,15 +1557,15 @@
         <v>295</v>
       </c>
       <c r="I4">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1530,15 +1576,15 @@
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>174</v>
+        <v>203</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1547,19 +1593,17 @@
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="9" t="s">
-        <v>295</v>
-      </c>
+      <c r="H6" s="9"/>
       <c r="I6">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1572,15 +1616,15 @@
         <v>295</v>
       </c>
       <c r="I7">
-        <v>40.9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1591,15 +1635,15 @@
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
       <c r="I8">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1610,15 +1654,15 @@
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
       <c r="I9">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1629,15 +1673,15 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1648,440 +1692,484 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="9"/>
+      <c r="F12" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="I12">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>198</v>
+        <v>166</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>250</v>
+        <v>222</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="I13">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="I14">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C15" s="9"/>
+        <v>234</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
+      <c r="H16" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>295</v>
+        <v>168</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C18" s="9"/>
+        <v>238</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="D18" s="9"/>
-      <c r="E18" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
+      <c r="I18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>203</v>
+        <v>185</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>295</v>
+        <v>296</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="C21" s="9"/>
+        <v>248</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="D21" s="9"/>
-      <c r="E21" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
+      <c r="H21" s="9" t="s">
+        <v>295</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
+      <c r="H22" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="H23" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C24" s="9"/>
+        <v>262</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="D24" s="9"/>
-      <c r="E24" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
+      <c r="I24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>226</v>
+        <v>263</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
+      <c r="D25" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
-      <c r="G25" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>295</v>
+        <v>212</v>
       </c>
       <c r="I25">
-        <v>2750</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>227</v>
+        <v>264</v>
       </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
-      <c r="G26" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9" t="s">
+        <v>168</v>
+      </c>
       <c r="I26">
-        <v>1560</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
+      <c r="D27" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
-      <c r="G27" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9" t="s">
+        <v>217</v>
+      </c>
       <c r="I27">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="C28" s="9"/>
+        <v>270</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
-      <c r="G28" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28">
-        <v>777.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
+      <c r="D29" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
-      <c r="G29" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>295</v>
+        <v>168</v>
       </c>
       <c r="I29">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>249</v>
+        <v>229</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="F30" s="9"/>
-      <c r="G30" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
         <v>295</v>
       </c>
       <c r="I30">
-        <v>102.7</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="F31" s="9"/>
-      <c r="G31" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31">
-        <v>39.5</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>244</v>
+        <v>158</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>188</v>
+        <v>295</v>
       </c>
       <c r="I32">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9" t="s">
+      <c r="E33" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="F33" s="9"/>
       <c r="G33" s="9"/>
-      <c r="H33" s="9" t="s">
-        <v>298</v>
-      </c>
+      <c r="H33" s="9"/>
       <c r="I33">
-        <v>83.4</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9" t="s">
+      <c r="E34" s="9" t="s">
         <v>167</v>
       </c>
+      <c r="F34" s="9"/>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>215</v>
+        <v>176</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>266</v>
+        <v>230</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
@@ -2090,311 +2178,362 @@
         <v>167</v>
       </c>
       <c r="G35" s="9"/>
-      <c r="H35" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H35" s="9"/>
+      <c r="I35">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
-      <c r="H36" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H36" s="9"/>
+      <c r="I36">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H37" s="9"/>
+      <c r="I37">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="C38" s="9" t="s">
-        <v>167</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
+      <c r="G38" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="H38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I38">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="I39">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="I40">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>238</v>
-      </c>
-      <c r="C41" s="9" t="s">
+        <v>252</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I41">
+        <v>54.2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="I42">
+        <v>60.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+        <v>298</v>
+      </c>
+      <c r="I43">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="C44" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="H44" s="9"/>
+      <c r="I44">
+        <v>91.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
+      <c r="G45" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="H45" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="I45">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="H46" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+      <c r="I46">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>210</v>
+        <v>170</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="C47" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="D47" s="9"/>
-      <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
       <c r="H47" s="9"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="I47">
+        <v>406.7</v>
+      </c>
+      <c r="J47">
+        <v>400</v>
+      </c>
+      <c r="K47">
+        <v>2018</v>
+      </c>
+      <c r="L47" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="9"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+        <v>188</v>
+      </c>
+      <c r="I48">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G49" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H49" s="9"/>
+      <c r="I49">
+        <v>777.6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>216</v>
+        <v>87</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="G50" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="H50" s="9"/>
+      <c r="I50">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>219</v>
+        <v>173</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>167</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
+      <c r="G51" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="H51" s="9"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="I51">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>271</v>
+        <v>226</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>167</v>
-      </c>
+      <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
+      <c r="G52" s="9" t="s">
+        <v>167</v>
+      </c>
       <c r="H52" s="9" t="s">
-        <v>168</v>
+        <v>295</v>
+      </c>
+      <c r="I52">
+        <v>2750</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:I52">
-    <sortCondition descending="1" ref="E1"/>
+  <sortState ref="A2:L52">
+    <sortCondition ref="I1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2402,15 +2541,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBA27AF-D291-7D48-961F-A16DAFC08646}">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:U31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>282</v>
       </c>
@@ -2423,8 +2562,17 @@
       <c r="D1" s="8" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E1" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -2437,8 +2585,17 @@
       <c r="D2" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -2451,8 +2608,17 @@
       <c r="D3" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -2465,8 +2631,17 @@
       <c r="D4" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -2479,8 +2654,17 @@
       <c r="D5" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -2493,8 +2677,17 @@
       <c r="D6" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -2507,8 +2700,17 @@
       <c r="D7" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -2521,8 +2723,17 @@
       <c r="D8" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -2535,8 +2746,18 @@
       <c r="D9" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E9" s="12">
+        <v>3828</v>
+      </c>
+      <c r="F9" s="12">
+        <v>7538</v>
+      </c>
+      <c r="G9" s="12">
+        <f>E9+F9</f>
+        <v>11366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -2549,8 +2770,18 @@
       <c r="D10" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E10" s="12">
+        <v>3834</v>
+      </c>
+      <c r="F10" s="12">
+        <v>7565</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" ref="G10:G19" si="0">E10+F10</f>
+        <v>11399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -2561,8 +2792,18 @@
         <v>0.4</v>
       </c>
       <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E11" s="12">
+        <v>3826</v>
+      </c>
+      <c r="F11" s="12">
+        <v>7327</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>11153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -2575,8 +2816,18 @@
       <c r="D12" s="10">
         <v>4098</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E12" s="12">
+        <v>4399</v>
+      </c>
+      <c r="F12" s="12">
+        <v>7430</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>11829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -2589,8 +2840,18 @@
       <c r="D13" s="10">
         <v>4310</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E13" s="12">
+        <v>4788</v>
+      </c>
+      <c r="F13" s="12">
+        <v>7256</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>12044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -2603,8 +2864,18 @@
       <c r="D14" s="10">
         <v>4321</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E14" s="12">
+        <v>4572</v>
+      </c>
+      <c r="F14" s="12">
+        <v>7479</v>
+      </c>
+      <c r="G14" s="12">
+        <f t="shared" si="0"/>
+        <v>12051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -2617,8 +2888,18 @@
       <c r="D15" s="10">
         <v>4518</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E15" s="12">
+        <v>4796</v>
+      </c>
+      <c r="F15" s="12">
+        <v>6745</v>
+      </c>
+      <c r="G15" s="12">
+        <f t="shared" si="0"/>
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -2631,8 +2912,18 @@
       <c r="D16" s="10">
         <v>5047</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E16" s="12">
+        <v>4747</v>
+      </c>
+      <c r="F16" s="12">
+        <v>6819</v>
+      </c>
+      <c r="G16" s="12">
+        <f t="shared" si="0"/>
+        <v>11566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -2645,8 +2936,57 @@
       <c r="D17" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E17" s="12">
+        <v>1912</v>
+      </c>
+      <c r="F17" s="12">
+        <v>6781</v>
+      </c>
+      <c r="G17" s="12">
+        <f t="shared" si="0"/>
+        <v>8693</v>
+      </c>
+      <c r="I17">
+        <v>11366</v>
+      </c>
+      <c r="J17">
+        <v>11399</v>
+      </c>
+      <c r="K17">
+        <v>11153</v>
+      </c>
+      <c r="L17">
+        <v>11829</v>
+      </c>
+      <c r="M17">
+        <v>12044</v>
+      </c>
+      <c r="N17">
+        <v>12051</v>
+      </c>
+      <c r="O17">
+        <v>11541</v>
+      </c>
+      <c r="P17">
+        <v>11566</v>
+      </c>
+      <c r="Q17">
+        <v>8693</v>
+      </c>
+      <c r="R17">
+        <v>5224</v>
+      </c>
+      <c r="S17">
+        <v>9500</v>
+      </c>
+      <c r="T17" t="s">
+        <v>285</v>
+      </c>
+      <c r="U17" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -2659,8 +2999,18 @@
       <c r="D18" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E18" s="12">
+        <v>1146</v>
+      </c>
+      <c r="F18" s="13">
+        <v>4078</v>
+      </c>
+      <c r="G18" s="12">
+        <f t="shared" si="0"/>
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -2673,8 +3023,18 @@
       <c r="D19" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E19" s="12">
+        <v>1932</v>
+      </c>
+      <c r="F19" s="12">
+        <v>7568</v>
+      </c>
+      <c r="G19" s="12">
+        <f t="shared" si="0"/>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -2687,8 +3047,17 @@
       <c r="D20" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E20" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -2700,6 +3069,30 @@
       </c>
       <c r="D21" s="11" t="s">
         <v>285</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,18 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C861B26-E9A6-A64D-9345-30948F198A3A}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEED7E6-E568-E543-811F-450CF427E8CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2680" yWindow="620" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="3080" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
     <sheet name="polls" sheetId="9" r:id="rId2"/>
-    <sheet name="race" sheetId="1" r:id="rId3"/>
-    <sheet name="pettys" sheetId="2" r:id="rId4"/>
-    <sheet name="dispensaries" sheetId="7" r:id="rId5"/>
-    <sheet name="source" sheetId="5" r:id="rId6"/>
-    <sheet name="layout" sheetId="6" r:id="rId7"/>
+    <sheet name="cases" sheetId="10" r:id="rId3"/>
+    <sheet name="race" sheetId="1" r:id="rId4"/>
+    <sheet name="pettys" sheetId="2" r:id="rId5"/>
+    <sheet name="dispensaries" sheetId="7" r:id="rId6"/>
+    <sheet name="source" sheetId="5" r:id="rId7"/>
+    <sheet name="layout" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12717" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12729" uniqueCount="315">
   <si>
     <t>Case_Count</t>
   </si>
@@ -902,12 +903,6 @@
     <t>Marijuana legalization support over time</t>
   </si>
   <si>
-    <t>Gallup</t>
-  </si>
-  <si>
-    <t>Source: Minnesota Department of Health, Minnesota Supreme Court, Gallup, Star Tribune analysis</t>
-  </si>
-  <si>
     <t>Marijuana legalization support in the Midwest</t>
   </si>
   <si>
@@ -961,12 +956,39 @@
   <si>
     <t>sales</t>
   </si>
+  <si>
+    <t>possessions</t>
+  </si>
+  <si>
+    <t>Arrests for marijuana sales</t>
+  </si>
+  <si>
+    <t>Arrests for marijuana possession</t>
+  </si>
+  <si>
+    <t>All marijuana arrests</t>
+  </si>
+  <si>
+    <t>Source: Minnesota Department of Health, Minnesota Supreme Court, Gallup, FBI, Star Tribune analysis</t>
+  </si>
+  <si>
+    <t>cases</t>
+  </si>
+  <si>
+    <t>FBI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gallup </t>
+  </si>
+  <si>
+    <t>Marijuana arrests and convictions in Minnesota</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1020,12 +1042,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF31515F"/>
-      <name val="Courier"/>
-      <family val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1063,7 +1079,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1089,7 +1105,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1447,7 +1462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAE6105-103E-2847-B3C1-FB91C0EB3849}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -1489,10 +1504,10 @@
         <v>165</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K1" s="8" t="s">
         <v>282</v>
@@ -1554,7 +1569,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1613,7 +1628,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1710,7 +1725,7 @@
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1874,7 +1889,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1895,7 +1910,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1916,7 +1931,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2080,7 +2095,7 @@
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I30">
         <v>7.1</v>
@@ -2120,7 +2135,7 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I32">
         <v>9.6</v>
@@ -2255,7 +2270,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I39">
         <v>40.9</v>
@@ -2276,7 +2291,7 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2316,7 +2331,7 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I42">
         <v>60.2</v>
@@ -2337,7 +2352,7 @@
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="I43">
         <v>83.4</v>
@@ -2377,7 +2392,7 @@
         <v>167</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I45">
         <v>102.7</v>
@@ -2398,7 +2413,7 @@
         <v>167</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I46">
         <v>106</v>
@@ -2429,7 +2444,7 @@
         <v>2018</v>
       </c>
       <c r="L47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
@@ -2525,7 +2540,7 @@
         <v>167</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I52">
         <v>2750</v>
@@ -2541,15 +2556,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBA27AF-D291-7D48-961F-A16DAFC08646}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>282</v>
       </c>
@@ -2559,20 +2574,8 @@
       <c r="C1" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="D1" s="8" t="s">
-        <v>293</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -2582,20 +2585,8 @@
       <c r="C2" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -2605,20 +2596,8 @@
       <c r="C3" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -2628,20 +2607,8 @@
       <c r="C4" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -2651,20 +2618,8 @@
       <c r="C5" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D5" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -2674,20 +2629,8 @@
       <c r="C6" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -2697,20 +2640,8 @@
       <c r="C7" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -2720,20 +2651,8 @@
       <c r="C8" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -2743,21 +2662,8 @@
       <c r="C9" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E9" s="12">
-        <v>3828</v>
-      </c>
-      <c r="F9" s="12">
-        <v>7538</v>
-      </c>
-      <c r="G9" s="12">
-        <f>E9+F9</f>
-        <v>11366</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -2767,21 +2673,8 @@
       <c r="C10" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E10" s="12">
-        <v>3834</v>
-      </c>
-      <c r="F10" s="12">
-        <v>7565</v>
-      </c>
-      <c r="G10" s="12">
-        <f t="shared" ref="G10:G19" si="0">E10+F10</f>
-        <v>11399</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -2791,19 +2684,8 @@
       <c r="C11" s="10">
         <v>0.4</v>
       </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="12">
-        <v>3826</v>
-      </c>
-      <c r="F11" s="12">
-        <v>7327</v>
-      </c>
-      <c r="G11" s="12">
-        <f t="shared" si="0"/>
-        <v>11153</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -2813,21 +2695,8 @@
       <c r="C12" s="10">
         <v>0.41</v>
       </c>
-      <c r="D12" s="10">
-        <v>4098</v>
-      </c>
-      <c r="E12" s="12">
-        <v>4399</v>
-      </c>
-      <c r="F12" s="12">
-        <v>7430</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="0"/>
-        <v>11829</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -2837,21 +2706,8 @@
       <c r="C13" s="10">
         <v>0.54</v>
       </c>
-      <c r="D13" s="10">
-        <v>4310</v>
-      </c>
-      <c r="E13" s="12">
-        <v>4788</v>
-      </c>
-      <c r="F13" s="12">
-        <v>7256</v>
-      </c>
-      <c r="G13" s="12">
-        <f t="shared" si="0"/>
-        <v>12044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -2861,21 +2717,8 @@
       <c r="C14" s="10">
         <v>0.44</v>
       </c>
-      <c r="D14" s="10">
-        <v>4321</v>
-      </c>
-      <c r="E14" s="12">
-        <v>4572</v>
-      </c>
-      <c r="F14" s="12">
-        <v>7479</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="0"/>
-        <v>12051</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -2885,21 +2728,8 @@
       <c r="C15" s="10">
         <v>0.57999999999999996</v>
       </c>
-      <c r="D15" s="10">
-        <v>4518</v>
-      </c>
-      <c r="E15" s="12">
-        <v>4796</v>
-      </c>
-      <c r="F15" s="12">
-        <v>6745</v>
-      </c>
-      <c r="G15" s="12">
-        <f t="shared" si="0"/>
-        <v>11541</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -2909,21 +2739,8 @@
       <c r="C16" s="10">
         <v>0.45</v>
       </c>
-      <c r="D16" s="10">
-        <v>5047</v>
-      </c>
-      <c r="E16" s="12">
-        <v>4747</v>
-      </c>
-      <c r="F16" s="12">
-        <v>6819</v>
-      </c>
-      <c r="G16" s="12">
-        <f t="shared" si="0"/>
-        <v>11566</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -2933,60 +2750,8 @@
       <c r="C17" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1912</v>
-      </c>
-      <c r="F17" s="12">
-        <v>6781</v>
-      </c>
-      <c r="G17" s="12">
-        <f t="shared" si="0"/>
-        <v>8693</v>
-      </c>
-      <c r="I17">
-        <v>11366</v>
-      </c>
-      <c r="J17">
-        <v>11399</v>
-      </c>
-      <c r="K17">
-        <v>11153</v>
-      </c>
-      <c r="L17">
-        <v>11829</v>
-      </c>
-      <c r="M17">
-        <v>12044</v>
-      </c>
-      <c r="N17">
-        <v>12051</v>
-      </c>
-      <c r="O17">
-        <v>11541</v>
-      </c>
-      <c r="P17">
-        <v>11566</v>
-      </c>
-      <c r="Q17">
-        <v>8693</v>
-      </c>
-      <c r="R17">
-        <v>5224</v>
-      </c>
-      <c r="S17">
-        <v>9500</v>
-      </c>
-      <c r="T17" t="s">
-        <v>285</v>
-      </c>
-      <c r="U17" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -2996,21 +2761,8 @@
       <c r="C18" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1146</v>
-      </c>
-      <c r="F18" s="13">
-        <v>4078</v>
-      </c>
-      <c r="G18" s="12">
-        <f t="shared" si="0"/>
-        <v>5224</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -3020,21 +2772,8 @@
       <c r="C19" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E19" s="12">
-        <v>1932</v>
-      </c>
-      <c r="F19" s="12">
-        <v>7568</v>
-      </c>
-      <c r="G19" s="12">
-        <f t="shared" si="0"/>
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -3044,20 +2783,8 @@
       <c r="C20" s="10">
         <v>0.65</v>
       </c>
-      <c r="D20" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -3066,33 +2793,6 @@
       </c>
       <c r="C21" s="11" t="s">
         <v>285</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3101,6 +2801,389 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94908333-B038-DB43-B797-9CADC2229BB6}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" activeCellId="2" sqref="B10 B11 B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>2000</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2001</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2002</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>2003</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>2004</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>2005</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>2006</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>2007</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C9" s="12">
+        <v>3828</v>
+      </c>
+      <c r="D9" s="12">
+        <v>7538</v>
+      </c>
+      <c r="E9" s="12">
+        <f>C9+D9</f>
+        <v>11366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>2008</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3834</v>
+      </c>
+      <c r="D10" s="12">
+        <v>7565</v>
+      </c>
+      <c r="E10" s="12">
+        <f>C10+D10</f>
+        <v>11399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>2009</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C11" s="12">
+        <v>3826</v>
+      </c>
+      <c r="D11" s="12">
+        <v>7327</v>
+      </c>
+      <c r="E11" s="12">
+        <f>C11+D11</f>
+        <v>11153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>2010</v>
+      </c>
+      <c r="B12" s="10">
+        <v>4098</v>
+      </c>
+      <c r="C12" s="12">
+        <v>4399</v>
+      </c>
+      <c r="D12" s="12">
+        <v>7430</v>
+      </c>
+      <c r="E12" s="12">
+        <f>C12+D12</f>
+        <v>11829</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>2011</v>
+      </c>
+      <c r="B13" s="10">
+        <v>4310</v>
+      </c>
+      <c r="C13" s="12">
+        <v>4788</v>
+      </c>
+      <c r="D13" s="12">
+        <v>7256</v>
+      </c>
+      <c r="E13" s="12">
+        <f>C13+D13</f>
+        <v>12044</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>2012</v>
+      </c>
+      <c r="B14" s="10">
+        <v>4321</v>
+      </c>
+      <c r="C14" s="12">
+        <v>4572</v>
+      </c>
+      <c r="D14" s="12">
+        <v>7479</v>
+      </c>
+      <c r="E14" s="12">
+        <f>C14+D14</f>
+        <v>12051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>2013</v>
+      </c>
+      <c r="B15" s="10">
+        <v>4518</v>
+      </c>
+      <c r="C15" s="12">
+        <v>4796</v>
+      </c>
+      <c r="D15" s="12">
+        <v>6745</v>
+      </c>
+      <c r="E15" s="12">
+        <f>C15+D15</f>
+        <v>11541</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>2014</v>
+      </c>
+      <c r="B16" s="10">
+        <v>5047</v>
+      </c>
+      <c r="C16" s="12">
+        <v>4747</v>
+      </c>
+      <c r="D16" s="12">
+        <v>6819</v>
+      </c>
+      <c r="E16" s="12">
+        <f>C16+D16</f>
+        <v>11566</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>2015</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C17" s="12">
+        <v>1912</v>
+      </c>
+      <c r="D17" s="12">
+        <v>6781</v>
+      </c>
+      <c r="E17" s="12">
+        <f>C17+D17</f>
+        <v>8693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>2016</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C18" s="12">
+        <v>1146</v>
+      </c>
+      <c r="D18" s="12">
+        <v>4078</v>
+      </c>
+      <c r="E18" s="12">
+        <f>C18+D18</f>
+        <v>5224</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>2017</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C19" s="12">
+        <v>1932</v>
+      </c>
+      <c r="D19" s="12">
+        <v>7568</v>
+      </c>
+      <c r="E19" s="12">
+        <f>C19+D19</f>
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>2018</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4104"/>
   <sheetViews>
@@ -85201,7 +85284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -85446,7 +85529,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DF53AB-C788-8D47-81A3-6CDF1DE4D8EA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -85643,12 +85726,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -85659,12 +85742,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>2015</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -85697,40 +85775,66 @@
         <v>287</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B9" t="s">
-        <v>113</v>
-      </c>
-      <c r="C9" t="s">
-        <v>110</v>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>311</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B12" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C12" s="9" t="s">
         <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -85744,12 +85848,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:B40"/>
+  <dimension ref="A2:B46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -85836,7 +85940,7 @@
         <v>282</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
@@ -85844,7 +85948,7 @@
         <v>283</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
@@ -85852,184 +85956,226 @@
         <v>284</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="B17" s="9"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>290</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="8" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B25" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
         <v>116</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A23" t="s">
-        <v>4</v>
-      </c>
-      <c r="B23" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A24" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A31" t="s">
-        <v>96</v>
-      </c>
-      <c r="B31" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" t="s">
-        <v>97</v>
-      </c>
-      <c r="B32" t="s">
-        <v>126</v>
+      <c r="A32" s="8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
-        <v>131</v>
+      <c r="A36" t="s">
+        <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
-        <v>132</v>
+      <c r="A37" t="s">
+        <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
-        <v>133</v>
+      <c r="A38" t="s">
+        <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
-        <v>134</v>
+      <c r="A39" t="s">
+        <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
         <v>101</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B46" t="s">
         <v>130</v>
       </c>
     </row>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEED7E6-E568-E543-811F-450CF427E8CF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FDE340-7B76-0F46-A4E9-1C2806F49F26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="3080" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3360" yWindow="2500" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12729" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12739" uniqueCount="316">
   <si>
     <t>Case_Count</t>
   </si>
@@ -969,19 +969,22 @@
     <t>All marijuana arrests</t>
   </si>
   <si>
-    <t>Source: Minnesota Department of Health, Minnesota Supreme Court, Gallup, FBI, Star Tribune analysis</t>
-  </si>
-  <si>
     <t>cases</t>
-  </si>
-  <si>
-    <t>FBI</t>
   </si>
   <si>
     <t xml:space="preserve">Gallup </t>
   </si>
   <si>
     <t>Marijuana arrests and convictions in Minnesota</t>
+  </si>
+  <si>
+    <t>bca_arrests</t>
+  </si>
+  <si>
+    <t>FBI, Minnesota BCA</t>
+  </si>
+  <si>
+    <t>Source: Minnesota Department of Health, Minnesota Supreme Court, Gallup, FBI, Minnesota Bureau of Criminal Apprehension, Star Tribune analysis</t>
   </si>
 </sst>
 </file>
@@ -2802,15 +2805,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94908333-B038-DB43-B797-9CADC2229BB6}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" activeCellId="2" sqref="B10 B11 B7"/>
+    <sheetView zoomScale="101" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>282</v>
       </c>
@@ -2826,8 +2829,11 @@
       <c r="E1" s="8" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="8" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -2843,8 +2849,11 @@
       <c r="E2" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2001</v>
       </c>
@@ -2860,8 +2869,11 @@
       <c r="E3" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>2002</v>
       </c>
@@ -2877,8 +2889,11 @@
       <c r="E4" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2003</v>
       </c>
@@ -2894,8 +2909,11 @@
       <c r="E5" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>2004</v>
       </c>
@@ -2911,8 +2929,11 @@
       <c r="E6" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>2005</v>
       </c>
@@ -2928,8 +2949,11 @@
       <c r="E7" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>2006</v>
       </c>
@@ -2945,8 +2969,11 @@
       <c r="E8" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>2007</v>
       </c>
@@ -2960,11 +2987,14 @@
         <v>7538</v>
       </c>
       <c r="E9" s="12">
-        <f>C9+D9</f>
+        <f t="shared" ref="E9:F19" si="0">C9+D9</f>
         <v>11366</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="12">
+        <v>11366</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>2008</v>
       </c>
@@ -2978,11 +3008,14 @@
         <v>7565</v>
       </c>
       <c r="E10" s="12">
-        <f>C10+D10</f>
+        <f t="shared" si="0"/>
         <v>11399</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="12">
+        <v>11399</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>2009</v>
       </c>
@@ -2996,11 +3029,14 @@
         <v>7327</v>
       </c>
       <c r="E11" s="12">
-        <f>C11+D11</f>
+        <f t="shared" si="0"/>
         <v>11153</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="12">
+        <v>11153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>2010</v>
       </c>
@@ -3014,11 +3050,14 @@
         <v>7430</v>
       </c>
       <c r="E12" s="12">
-        <f>C12+D12</f>
+        <f t="shared" si="0"/>
         <v>11829</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="12">
+        <v>11872</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>2011</v>
       </c>
@@ -3032,11 +3071,14 @@
         <v>7256</v>
       </c>
       <c r="E13" s="12">
-        <f>C13+D13</f>
+        <f t="shared" si="0"/>
         <v>12044</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="12">
+        <v>12043</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -3050,11 +3092,14 @@
         <v>7479</v>
       </c>
       <c r="E14" s="12">
-        <f>C14+D14</f>
+        <f t="shared" si="0"/>
         <v>12051</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" s="12">
+        <v>11969</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>2013</v>
       </c>
@@ -3068,11 +3113,14 @@
         <v>6745</v>
       </c>
       <c r="E15" s="12">
-        <f>C15+D15</f>
+        <f t="shared" si="0"/>
         <v>11541</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" s="12">
+        <v>11650</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>2014</v>
       </c>
@@ -3086,11 +3134,14 @@
         <v>6819</v>
       </c>
       <c r="E16" s="12">
-        <f>C16+D16</f>
+        <f t="shared" si="0"/>
         <v>11566</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="12">
+        <v>11590</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>2015</v>
       </c>
@@ -3104,11 +3155,14 @@
         <v>6781</v>
       </c>
       <c r="E17" s="12">
-        <f>C17+D17</f>
+        <f t="shared" si="0"/>
         <v>8693</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="12">
+        <v>8638</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>2016</v>
       </c>
@@ -3122,11 +3176,14 @@
         <v>4078</v>
       </c>
       <c r="E18" s="12">
-        <f>C18+D18</f>
+        <f t="shared" si="0"/>
         <v>5224</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18" s="12">
+        <v>8856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>2017</v>
       </c>
@@ -3140,11 +3197,14 @@
         <v>7568</v>
       </c>
       <c r="E19" s="12">
-        <f>C19+D19</f>
+        <f t="shared" si="0"/>
         <v>9500</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" s="12">
+        <v>9495</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>2018</v>
       </c>
@@ -3160,8 +3220,11 @@
       <c r="E20" s="11" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" s="11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>2019</v>
       </c>
@@ -3175,6 +3238,9 @@
         <v>285</v>
       </c>
       <c r="E21" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F21" s="11" t="s">
         <v>285</v>
       </c>
     </row>
@@ -85730,8 +85796,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -85742,7 +85808,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -85775,18 +85841,18 @@
         <v>287</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>312</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>314</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -85965,7 +86031,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B17" s="9"/>
     </row>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FDE340-7B76-0F46-A4E9-1C2806F49F26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B411DCD6-60BB-5848-B9D2-533E422978BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3360" yWindow="2500" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9960" yWindow="1860" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
     <sheet name="polls" sheetId="9" r:id="rId2"/>
-    <sheet name="cases" sheetId="10" r:id="rId3"/>
-    <sheet name="race" sheetId="1" r:id="rId4"/>
-    <sheet name="pettys" sheetId="2" r:id="rId5"/>
-    <sheet name="dispensaries" sheetId="7" r:id="rId6"/>
-    <sheet name="source" sheetId="5" r:id="rId7"/>
-    <sheet name="layout" sheetId="6" r:id="rId8"/>
+    <sheet name="arrests" sheetId="10" r:id="rId3"/>
+    <sheet name="convictions" sheetId="11" r:id="rId4"/>
+    <sheet name="race" sheetId="1" r:id="rId5"/>
+    <sheet name="pettys" sheetId="2" r:id="rId6"/>
+    <sheet name="dispensaries" sheetId="7" r:id="rId7"/>
+    <sheet name="source" sheetId="5" r:id="rId8"/>
+    <sheet name="layout" sheetId="6" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12739" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12762" uniqueCount="329">
   <si>
     <t>Case_Count</t>
   </si>
@@ -986,6 +987,45 @@
   <si>
     <t>Source: Minnesota Department of Health, Minnesota Supreme Court, Gallup, FBI, Minnesota Bureau of Criminal Apprehension, Star Tribune analysis</t>
   </si>
+  <si>
+    <t>152.021.1(6)</t>
+  </si>
+  <si>
+    <t>152.021.2(a)(6)</t>
+  </si>
+  <si>
+    <t>152.022.1(5)</t>
+  </si>
+  <si>
+    <t>152.022.2(a)(6)</t>
+  </si>
+  <si>
+    <t>152.023.1(5)</t>
+  </si>
+  <si>
+    <t>152.023.2(a)(5)</t>
+  </si>
+  <si>
+    <t>152.024.1(4)</t>
+  </si>
+  <si>
+    <t>152.025.1(1)</t>
+  </si>
+  <si>
+    <t>152.027.3</t>
+  </si>
+  <si>
+    <t>152.027.4(b)</t>
+  </si>
+  <si>
+    <t>152.027.4(c)</t>
+  </si>
+  <si>
+    <t>152.027.4(a)</t>
+  </si>
+  <si>
+    <t>Marijuana convictions by level in Minnesota</t>
+  </si>
 </sst>
 </file>
 
@@ -2808,7 +2848,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2987,7 +3027,7 @@
         <v>7538</v>
       </c>
       <c r="E9" s="12">
-        <f t="shared" ref="E9:F19" si="0">C9+D9</f>
+        <f t="shared" ref="E9:E19" si="0">C9+D9</f>
         <v>11366</v>
       </c>
       <c r="F9" s="12">
@@ -3250,6 +3290,529 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9D2FF-023F-5446-8DE3-2F6EE8BCFA6F}">
+  <dimension ref="A1:N20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B1" s="8">
+        <v>2007</v>
+      </c>
+      <c r="C1" s="8">
+        <v>2008</v>
+      </c>
+      <c r="D1" s="8">
+        <v>2009</v>
+      </c>
+      <c r="E1" s="8">
+        <v>2010</v>
+      </c>
+      <c r="F1" s="8">
+        <v>2011</v>
+      </c>
+      <c r="G1" s="8">
+        <v>2012</v>
+      </c>
+      <c r="H1" s="8">
+        <v>2013</v>
+      </c>
+      <c r="I1" s="8">
+        <v>2014</v>
+      </c>
+      <c r="J1" s="8">
+        <v>2015</v>
+      </c>
+      <c r="K1" s="8">
+        <v>2016</v>
+      </c>
+      <c r="L1" s="8">
+        <v>2017</v>
+      </c>
+      <c r="M1" s="8">
+        <v>2018</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0</v>
+      </c>
+      <c r="H2" s="8">
+        <v>91</v>
+      </c>
+      <c r="I2" s="8">
+        <v>90</v>
+      </c>
+      <c r="J2" s="8">
+        <v>71</v>
+      </c>
+      <c r="K2" s="8">
+        <v>247</v>
+      </c>
+      <c r="L2" s="8">
+        <v>657</v>
+      </c>
+      <c r="M2" s="8">
+        <v>747</v>
+      </c>
+      <c r="N2" s="8">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>316</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>17</v>
+      </c>
+      <c r="M3">
+        <v>41</v>
+      </c>
+      <c r="N3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>317</v>
+      </c>
+      <c r="L4">
+        <v>19</v>
+      </c>
+      <c r="M4">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>318</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>22</v>
+      </c>
+      <c r="M5">
+        <v>32</v>
+      </c>
+      <c r="N5">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6">
+        <v>18</v>
+      </c>
+      <c r="N6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="H7">
+        <v>19</v>
+      </c>
+      <c r="I7">
+        <v>16</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>14</v>
+      </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="M7">
+        <v>27</v>
+      </c>
+      <c r="N7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>321</v>
+      </c>
+      <c r="H8">
+        <v>11</v>
+      </c>
+      <c r="I8">
+        <v>11</v>
+      </c>
+      <c r="J8">
+        <v>18</v>
+      </c>
+      <c r="K8">
+        <v>15</v>
+      </c>
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8">
+        <v>24</v>
+      </c>
+      <c r="N8">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>322</v>
+      </c>
+      <c r="H9">
+        <v>50</v>
+      </c>
+      <c r="I9">
+        <v>58</v>
+      </c>
+      <c r="J9">
+        <v>37</v>
+      </c>
+      <c r="K9">
+        <v>44</v>
+      </c>
+      <c r="L9">
+        <v>34</v>
+      </c>
+      <c r="M9">
+        <v>40</v>
+      </c>
+      <c r="N9">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>323</v>
+      </c>
+      <c r="K10">
+        <v>156</v>
+      </c>
+      <c r="L10">
+        <v>500</v>
+      </c>
+      <c r="M10">
+        <v>552</v>
+      </c>
+      <c r="N10">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3794</v>
+      </c>
+      <c r="I11" s="8">
+        <v>3910</v>
+      </c>
+      <c r="J11" s="8">
+        <v>4304</v>
+      </c>
+      <c r="K11" s="8">
+        <v>4288</v>
+      </c>
+      <c r="L11" s="8">
+        <v>4556</v>
+      </c>
+      <c r="M11" s="8">
+        <v>4534</v>
+      </c>
+      <c r="N11" s="8">
+        <v>25386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>324</v>
+      </c>
+      <c r="H12">
+        <v>3775</v>
+      </c>
+      <c r="I12">
+        <v>3879</v>
+      </c>
+      <c r="J12">
+        <v>4259</v>
+      </c>
+      <c r="K12">
+        <v>4225</v>
+      </c>
+      <c r="L12">
+        <v>4481</v>
+      </c>
+      <c r="M12">
+        <v>4461</v>
+      </c>
+      <c r="N12">
+        <v>25080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>325</v>
+      </c>
+      <c r="H13">
+        <v>15</v>
+      </c>
+      <c r="I13">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>26</v>
+      </c>
+      <c r="K13">
+        <v>32</v>
+      </c>
+      <c r="L13">
+        <v>38</v>
+      </c>
+      <c r="M13">
+        <v>42</v>
+      </c>
+      <c r="N13">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>326</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>19</v>
+      </c>
+      <c r="K14">
+        <v>31</v>
+      </c>
+      <c r="L14">
+        <v>37</v>
+      </c>
+      <c r="M14">
+        <v>31</v>
+      </c>
+      <c r="N14">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="8">
+        <v>7019</v>
+      </c>
+      <c r="I15" s="8">
+        <v>7088</v>
+      </c>
+      <c r="J15" s="8">
+        <v>7351</v>
+      </c>
+      <c r="K15" s="8">
+        <v>7246</v>
+      </c>
+      <c r="L15" s="8">
+        <v>7561</v>
+      </c>
+      <c r="M15" s="8">
+        <v>7012</v>
+      </c>
+      <c r="N15" s="8">
+        <v>43277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>324</v>
+      </c>
+      <c r="H16">
+        <v>134</v>
+      </c>
+      <c r="I16">
+        <v>56</v>
+      </c>
+      <c r="J16">
+        <v>28</v>
+      </c>
+      <c r="K16">
+        <v>28</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+      <c r="M16">
+        <v>32</v>
+      </c>
+      <c r="N16">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>327</v>
+      </c>
+      <c r="H17">
+        <v>6871</v>
+      </c>
+      <c r="I17">
+        <v>7025</v>
+      </c>
+      <c r="J17">
+        <v>7321</v>
+      </c>
+      <c r="K17">
+        <v>7217</v>
+      </c>
+      <c r="L17">
+        <v>7529</v>
+      </c>
+      <c r="M17">
+        <v>6976</v>
+      </c>
+      <c r="N17">
+        <v>42939</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>325</v>
+      </c>
+      <c r="H18">
+        <v>7</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>326</v>
+      </c>
+      <c r="H19">
+        <v>7</v>
+      </c>
+      <c r="I19">
+        <v>5</v>
+      </c>
+      <c r="J19">
+        <v>2</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>4</v>
+      </c>
+      <c r="N19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="8">
+        <v>10904</v>
+      </c>
+      <c r="I20" s="8">
+        <v>11088</v>
+      </c>
+      <c r="J20" s="8">
+        <v>11726</v>
+      </c>
+      <c r="K20" s="8">
+        <v>11781</v>
+      </c>
+      <c r="L20" s="8">
+        <v>12774</v>
+      </c>
+      <c r="M20" s="8">
+        <v>12293</v>
+      </c>
+      <c r="N20" s="8">
+        <v>70566</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4104"/>
   <sheetViews>
@@ -85350,12 +85913,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -85595,7 +86158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DF53AB-C788-8D47-81A3-6CDF1DE4D8EA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -85792,12 +86355,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -85846,7 +86409,7 @@
     </row>
     <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>312</v>
@@ -85855,51 +86418,59 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C10" t="s">
-        <v>110</v>
+    <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C11" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
+      <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A17" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
         <v>304</v>
       </c>
     </row>
@@ -85914,7 +86485,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A2:B46"/>
   <sheetViews>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B411DCD6-60BB-5848-B9D2-533E422978BA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17693ABC-1537-BB45-9794-287AF9E0D5C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9960" yWindow="1860" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4580" yWindow="460" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
@@ -3293,8 +3293,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9D2FF-023F-5446-8DE3-2F6EE8BCFA6F}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:J27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="H15:M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3560,6 +3560,9 @@
       <c r="A11" s="8" t="s">
         <v>104</v>
       </c>
+      <c r="E11"/>
+      <c r="F11"/>
+      <c r="G11"/>
       <c r="H11" s="8">
         <v>3794</v>
       </c>
@@ -85917,8 +85920,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17693ABC-1537-BB45-9794-287AF9E0D5C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EA718F-D03F-6444-A105-EFA4737D0ADA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4580" yWindow="460" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12280" yWindow="1200" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12762" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12764" uniqueCount="330">
   <si>
     <t>Case_Count</t>
   </si>
@@ -370,9 +370,6 @@
     <t>source</t>
   </si>
   <si>
-    <t>Minnesota Supreme Court</t>
-  </si>
-  <si>
     <t>race</t>
   </si>
   <si>
@@ -380,9 +377,6 @@
   </si>
   <si>
     <t>Minnesota cannabis cases by race of suspect</t>
-  </si>
-  <si>
-    <t>Minnesota petty cannibis-related misdemeanors</t>
   </si>
   <si>
     <t>Number of cases</t>
@@ -1026,6 +1020,15 @@
   <si>
     <t>Marijuana convictions by level in Minnesota</t>
   </si>
+  <si>
+    <t>http://mn.gov/msgc-stat/documents/reports/2016/2016_MSGC_Controlled_Substance_Report.pdf</t>
+  </si>
+  <si>
+    <t>Minneapolis petty cannibis-related misdemeanors</t>
+  </si>
+  <si>
+    <t>Minnesota Judicial Branch</t>
+  </si>
 </sst>
 </file>
 
@@ -1523,37 +1526,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="I1" s="8" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>109</v>
@@ -1561,15 +1564,15 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
       <c r="E2" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -1580,15 +1583,15 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
@@ -1599,20 +1602,20 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1620,15 +1623,15 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -1639,15 +1642,15 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
@@ -1658,20 +1661,20 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -1679,15 +1682,15 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -1698,15 +1701,15 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -1717,15 +1720,15 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -1736,15 +1739,15 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -1755,20 +1758,20 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1776,20 +1779,20 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1797,20 +1800,20 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1818,13 +1821,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -1837,20 +1840,20 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1858,20 +1861,20 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C17" s="9"/>
       <c r="D17" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1879,13 +1882,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
@@ -1898,20 +1901,20 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C19" s="9"/>
       <c r="D19" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1919,20 +1922,20 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1940,20 +1943,20 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1961,20 +1964,20 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1982,20 +1985,20 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2003,13 +2006,13 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
@@ -2022,20 +2025,20 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2043,20 +2046,20 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2064,20 +2067,20 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -2085,13 +2088,13 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D28" s="9"/>
       <c r="E28" s="9"/>
@@ -2104,20 +2107,20 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -2125,20 +2128,20 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I30">
         <v>7.1</v>
@@ -2146,15 +2149,15 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
@@ -2165,20 +2168,20 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
       <c r="E32" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I32">
         <v>9.6</v>
@@ -2186,15 +2189,15 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
@@ -2205,15 +2208,15 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
@@ -2224,16 +2227,16 @@
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
       <c r="E35" s="9"/>
       <c r="F35" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -2243,15 +2246,15 @@
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
       <c r="E36" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
@@ -2262,15 +2265,15 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
@@ -2281,17 +2284,17 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H38" s="9"/>
       <c r="I38">
@@ -2300,20 +2303,20 @@
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F39" s="9"/>
       <c r="G39" s="9"/>
       <c r="H39" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I39">
         <v>40.9</v>
@@ -2321,20 +2324,20 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I40">
         <v>50</v>
@@ -2342,15 +2345,15 @@
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
@@ -2361,20 +2364,20 @@
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I42">
         <v>60.2</v>
@@ -2382,20 +2385,20 @@
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
       <c r="F43" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="I43">
         <v>83.4</v>
@@ -2403,15 +2406,15 @@
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C44" s="9"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
@@ -2422,20 +2425,20 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C45" s="9"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I45">
         <v>102.7</v>
@@ -2443,20 +2446,20 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H46" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I46">
         <v>106</v>
@@ -2464,15 +2467,15 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F47" s="9"/>
       <c r="G47" s="9"/>
@@ -2487,25 +2490,25 @@
         <v>2018</v>
       </c>
       <c r="L47" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
       <c r="F48" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I48">
         <v>633</v>
@@ -2513,17 +2516,17 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H49" s="9"/>
       <c r="I49">
@@ -2535,14 +2538,14 @@
         <v>87</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H50" s="9"/>
       <c r="I50">
@@ -2551,17 +2554,17 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C51" s="9"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51">
@@ -2570,20 +2573,20 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C52" s="9"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H52" s="9" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="I52">
         <v>2750</v>
@@ -2609,13 +2612,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="B1" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
@@ -2626,7 +2629,7 @@
         <v>0.31</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -2634,10 +2637,10 @@
         <v>2001</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -2645,10 +2648,10 @@
         <v>2002</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -2659,7 +2662,7 @@
         <v>0.34</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -2667,10 +2670,10 @@
         <v>2004</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -2681,7 +2684,7 @@
         <v>0.36</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -2689,10 +2692,10 @@
         <v>2006</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -2700,10 +2703,10 @@
         <v>2007</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -2711,10 +2714,10 @@
         <v>2008</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -2722,7 +2725,7 @@
         <v>2009</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="10">
         <v>0.4</v>
@@ -2744,7 +2747,7 @@
         <v>2011</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C13" s="10">
         <v>0.54</v>
@@ -2791,7 +2794,7 @@
         <v>0.57999999999999996</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
@@ -2799,10 +2802,10 @@
         <v>2016</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
@@ -2813,7 +2816,7 @@
         <v>0.64</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
@@ -2832,10 +2835,10 @@
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2855,22 +2858,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -2878,19 +2881,19 @@
         <v>2000</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -2898,19 +2901,19 @@
         <v>2001</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -2918,19 +2921,19 @@
         <v>2002</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -2938,19 +2941,19 @@
         <v>2003</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -2958,19 +2961,19 @@
         <v>2004</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -2978,19 +2981,19 @@
         <v>2005</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -2998,19 +3001,19 @@
         <v>2006</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -3018,7 +3021,7 @@
         <v>2007</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C9" s="12">
         <v>3828</v>
@@ -3039,7 +3042,7 @@
         <v>2008</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C10" s="12">
         <v>3834</v>
@@ -3060,7 +3063,7 @@
         <v>2009</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C11" s="12">
         <v>3826</v>
@@ -3186,7 +3189,7 @@
         <v>2015</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C17" s="12">
         <v>1912</v>
@@ -3207,7 +3210,7 @@
         <v>2016</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C18" s="12">
         <v>1146</v>
@@ -3228,7 +3231,7 @@
         <v>2017</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C19" s="12">
         <v>1932</v>
@@ -3249,19 +3252,19 @@
         <v>2018</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -3269,19 +3272,19 @@
         <v>2019</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3293,7 +3296,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9D2FF-023F-5446-8DE3-2F6EE8BCFA6F}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="H15:M15"/>
     </sheetView>
   </sheetViews>
@@ -3301,7 +3304,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B1" s="8">
         <v>2007</v>
@@ -3389,7 +3392,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -3406,7 +3409,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="L4">
         <v>19</v>
@@ -3420,7 +3423,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -3446,7 +3449,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -3463,7 +3466,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H7">
         <v>19</v>
@@ -3489,7 +3492,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -3515,7 +3518,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="H9">
         <v>50</v>
@@ -3541,7 +3544,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K10">
         <v>156</v>
@@ -3587,7 +3590,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H12">
         <v>3775</v>
@@ -3613,7 +3616,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -3639,7 +3642,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -3691,7 +3694,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H16">
         <v>134</v>
@@ -3717,7 +3720,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H17">
         <v>6871</v>
@@ -3743,7 +3746,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -3760,7 +3763,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -85921,7 +85924,7 @@
   <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -85955,16 +85958,16 @@
         <v>100</v>
       </c>
       <c r="J1" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>132</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>134</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>101</v>
@@ -86173,24 +86176,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>143</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2">
         <v>44.826248</v>
@@ -86201,10 +86204,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C3">
         <v>45.119515</v>
@@ -86215,10 +86218,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C4">
         <v>46.798678000000002</v>
@@ -86229,10 +86232,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C5">
         <v>44.818415000000002</v>
@@ -86243,10 +86246,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C6">
         <v>47.377509000000003</v>
@@ -86257,10 +86260,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C7">
         <v>44.977488999999998</v>
@@ -86271,10 +86274,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C8">
         <v>46.858856000000003</v>
@@ -86285,10 +86288,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C9">
         <v>45.022072999999999</v>
@@ -86299,10 +86302,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C10">
         <v>44.019328999999999</v>
@@ -86313,10 +86316,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C11">
         <v>45.521875999999999</v>
@@ -86327,10 +86330,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>156</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>158</v>
       </c>
       <c r="C12">
         <v>44.953040000000001</v>
@@ -86341,10 +86344,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C13">
         <v>44.905405999999999</v>
@@ -86360,10 +86363,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -86374,7 +86377,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -86390,91 +86393,99 @@
     </row>
     <row r="7" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>310</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>312</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>328</v>
+        <v>326</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>113</v>
-      </c>
-      <c r="C11" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B12" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>139</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -86503,100 +86514,100 @@
   <sheetData>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="8" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
@@ -86605,53 +86616,53 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="8" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>305</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>306</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.15">
@@ -86659,7 +86670,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
@@ -86667,7 +86678,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.15">
@@ -86675,7 +86686,7 @@
         <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.15">
@@ -86683,7 +86694,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.15">
@@ -86691,7 +86702,7 @@
         <v>4</v>
       </c>
       <c r="B29" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.15">
@@ -86699,12 +86710,12 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.15">
@@ -86712,7 +86723,7 @@
         <v>92</v>
       </c>
       <c r="B33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.15">
@@ -86720,7 +86731,7 @@
         <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.15">
@@ -86728,7 +86739,7 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.15">
@@ -86736,7 +86747,7 @@
         <v>95</v>
       </c>
       <c r="B36" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.15">
@@ -86744,7 +86755,7 @@
         <v>96</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.15">
@@ -86752,7 +86763,7 @@
         <v>97</v>
       </c>
       <c r="B38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.15">
@@ -86760,7 +86771,7 @@
         <v>98</v>
       </c>
       <c r="B39" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.15">
@@ -86768,7 +86779,7 @@
         <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.15">
@@ -86776,39 +86787,39 @@
         <v>100</v>
       </c>
       <c r="B41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B42" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B45" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.15">
@@ -86816,7 +86827,7 @@
         <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EA718F-D03F-6444-A105-EFA4737D0ADA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9906BD9B-6063-344D-BB5E-9397C103E1EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12280" yWindow="1200" windowWidth="23640" windowHeight="14420" tabRatio="500" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3640" yWindow="1260" windowWidth="26820" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12764" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12772" uniqueCount="336">
   <si>
     <t>Case_Count</t>
   </si>
@@ -1029,6 +1029,24 @@
   <si>
     <t>Minnesota Judicial Branch</t>
   </si>
+  <si>
+    <t>https://www.bizjournals.com/pacific/news/2017/11/29/hawaiis-medical-marijuana-dispensaries-total-1-3m.html</t>
+  </si>
+  <si>
+    <t>https://www.democratandchronicle.com/story/news/politics/albany/2017/10/05/new-york-medical-marijuana-revenue/106225648/</t>
+  </si>
+  <si>
+    <t>https://www.fool.com/investing/2018/11/25/recreational-marijuana-sales-commenced-in-this-18.aspx</t>
+  </si>
+  <si>
+    <t>https://www.bizjournals.com/portland/news/2018/08/10/oregon-cannabis-sales-expected-to-top-1b-by-2020.html</t>
+  </si>
+  <si>
+    <t>https://www.usnews.com/news/business/articles/2018-08-03/1st-year-of-nevada-marijuana-sales-exceeds-expectations</t>
+  </si>
+  <si>
+    <t>https://www.ktuu.com/content/news/Marijuana-tax-revenue-for-FY18-exceeds-states-predictions-489793151.html</t>
+  </si>
 </sst>
 </file>
 
@@ -1089,12 +1107,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1125,7 +1149,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1151,6 +1175,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1508,8 +1534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAE6105-103E-2847-B3C1-FB91C0EB3849}">
   <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1522,6 +1548,7 @@
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
@@ -1552,7 +1579,7 @@
       <c r="I1" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="13" t="s">
         <v>296</v>
       </c>
       <c r="K1" s="8" t="s">
@@ -1564,48 +1591,53 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>165</v>
       </c>
+      <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="H2" s="9" t="s">
+        <v>166</v>
+      </c>
       <c r="I2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
       <c r="H3" s="9"/>
       <c r="I3">
-        <v>0</v>
+        <v>39.5</v>
+      </c>
+      <c r="L3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
@@ -1614,19 +1646,26 @@
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H4" s="9"/>
       <c r="I4">
-        <v>0</v>
+        <v>406.7</v>
+      </c>
+      <c r="J4" s="14">
+        <v>400</v>
+      </c>
+      <c r="K4">
+        <v>2018</v>
+      </c>
+      <c r="L4" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>244</v>
+        <v>223</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
@@ -1642,50 +1681,68 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="I6">
-        <v>0</v>
+        <v>2750</v>
+      </c>
+      <c r="J6" s="14">
+        <v>6000</v>
+      </c>
+      <c r="K6">
+        <v>2017</v>
+      </c>
+      <c r="L6" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H7" s="9"/>
       <c r="I7">
-        <v>0</v>
+        <v>1560</v>
+      </c>
+      <c r="J7" s="14">
+        <v>1500</v>
+      </c>
+      <c r="K7">
+        <v>2017</v>
+      </c>
+      <c r="L7" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>203</v>
+        <v>172</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1694,17 +1751,19 @@
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="I8">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>205</v>
+        <v>173</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1713,36 +1772,38 @@
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="I9">
-        <v>0</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>212</v>
+        <v>174</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>263</v>
+        <v>228</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10">
-        <v>0</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>216</v>
+        <v>175</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>267</v>
+        <v>229</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1753,25 +1814,25 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11">
-        <v>0</v>
+        <v>17.399999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
       <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="D12" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="F12" s="9"/>
       <c r="G12" s="9"/>
       <c r="H12" s="9" t="s">
-        <v>293</v>
+        <v>166</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1779,63 +1840,68 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>164</v>
+        <v>177</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C13" s="9"/>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>166</v>
-      </c>
+      <c r="H13" s="9"/>
       <c r="I13">
-        <v>0</v>
+        <v>17.2</v>
+      </c>
+      <c r="J13" s="14">
+        <v>1.3</v>
+      </c>
+      <c r="K13">
+        <v>2017</v>
+      </c>
+      <c r="L13" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="C14" s="9" t="s">
         <v>165</v>
       </c>
+      <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>166</v>
-      </c>
+      <c r="H14" s="9"/>
       <c r="I14">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="C15" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15">
-        <v>0</v>
+        <v>91.1</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -1859,7 +1925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>181</v>
       </c>
@@ -1880,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>182</v>
       </c>
@@ -1899,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>183</v>
       </c>
@@ -1920,136 +1986,136 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="9"/>
+      <c r="E20" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9" t="s">
-        <v>292</v>
-      </c>
+      <c r="H20" s="9"/>
       <c r="I20">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>165</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
+      <c r="F21" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="G21" s="9"/>
       <c r="H21" s="9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+        <v>83.4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="D23" s="9"/>
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
+      <c r="G23" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="H23" s="9" t="s">
-        <v>166</v>
+        <v>291</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
-        <v>208</v>
+        <v>189</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>165</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="F24" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+      <c r="H24" s="9" t="s">
+        <v>186</v>
+      </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
-        <v>209</v>
+        <v>190</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>261</v>
+        <v>156</v>
       </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E25" s="9"/>
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="9" t="s">
-        <v>210</v>
+        <v>291</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9" t="s">
@@ -2059,95 +2125,99 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9" t="s">
-        <v>166</v>
+        <v>292</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
-      <c r="H27" s="9" t="s">
-        <v>215</v>
-      </c>
+      <c r="H27" s="9"/>
       <c r="I27">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="C28" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+        <v>31.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C29" s="9" t="s">
         <v>165</v>
       </c>
+      <c r="D29" s="9"/>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="9" t="s">
-        <v>166</v>
+        <v>291</v>
       </c>
       <c r="I29">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>227</v>
+        <v>247</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
       <c r="H30" s="9" t="s">
         <v>291</v>
       </c>
       <c r="I30">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+        <v>102.7</v>
+      </c>
+      <c r="J30" s="14">
+        <v>500</v>
+      </c>
+      <c r="L30" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>196</v>
       </c>
@@ -2166,12 +2236,12 @@
         <v>7.2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -2180,19 +2250,17 @@
       </c>
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
-      <c r="H32" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H32" s="9"/>
       <c r="I32">
-        <v>9.6</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
@@ -2203,15 +2271,15 @@
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
       <c r="I33">
-        <v>17.2</v>
+        <v>54.2</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
-        <v>175</v>
+        <v>199</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -2220,36 +2288,49 @@
       </c>
       <c r="F34" s="9"/>
       <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
+      <c r="H34" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="I34">
-        <v>17.399999999999999</v>
+        <v>40.9</v>
+      </c>
+      <c r="J34" s="14">
+        <v>0.6</v>
+      </c>
+      <c r="K34">
+        <v>2017</v>
+      </c>
+      <c r="L34" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
-        <v>174</v>
+        <v>200</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
+      <c r="D35" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="E35" s="9"/>
-      <c r="F35" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="F35" s="9"/>
       <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
+      <c r="H35" s="9" t="s">
+        <v>292</v>
+      </c>
       <c r="I35">
-        <v>17.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
@@ -2260,15 +2341,15 @@
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36">
-        <v>31.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
@@ -2277,57 +2358,63 @@
       </c>
       <c r="F37" s="9"/>
       <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="H37" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="I37">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="F38" s="9"/>
-      <c r="G38" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38">
-        <v>39.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H39" s="9"/>
       <c r="I39">
-        <v>40.9</v>
+        <v>777.6</v>
+      </c>
+      <c r="J39" s="14">
+        <v>520</v>
+      </c>
+      <c r="L39" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>226</v>
+        <v>257</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="9"/>
@@ -2336,19 +2423,17 @@
       </c>
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
-      <c r="H40" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="H40" s="9"/>
       <c r="I40">
-        <v>50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
@@ -2357,169 +2442,162 @@
       </c>
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="H41" s="9" t="s">
+        <v>291</v>
+      </c>
       <c r="I41">
-        <v>54.2</v>
+        <v>60.2</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C42" s="9"/>
-      <c r="D42" s="9"/>
-      <c r="E42" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>165</v>
       </c>
+      <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="9" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="I42">
-        <v>60.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
-        <v>185</v>
+        <v>208</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="C43" s="9"/>
+        <v>260</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="F43" s="9"/>
       <c r="G43" s="9"/>
-      <c r="H43" s="9" t="s">
-        <v>294</v>
-      </c>
+      <c r="H43" s="9"/>
       <c r="I43">
-        <v>83.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
-        <v>179</v>
+        <v>209</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9" t="s">
+      <c r="D44" s="9" t="s">
         <v>165</v>
       </c>
+      <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="H44" s="9" t="s">
+        <v>210</v>
+      </c>
       <c r="I44">
-        <v>91.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>247</v>
+        <v>262</v>
       </c>
       <c r="C45" s="9"/>
-      <c r="D45" s="9"/>
+      <c r="D45" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
-      <c r="G45" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="G45" s="9"/>
       <c r="H45" s="9" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="I45">
-        <v>102.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>243</v>
+        <v>263</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="F46" s="9"/>
-      <c r="G46" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>291</v>
-      </c>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
       <c r="I46">
-        <v>106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="C47" s="9"/>
       <c r="D47" s="9"/>
-      <c r="E47" s="9" t="s">
+      <c r="E47" s="9"/>
+      <c r="F47" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="F47" s="9"/>
       <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="H47" s="9" t="s">
+        <v>293</v>
+      </c>
       <c r="I47">
-        <v>406.7</v>
-      </c>
-      <c r="J47">
-        <v>400</v>
-      </c>
-      <c r="K47">
-        <v>2018</v>
-      </c>
-      <c r="L47" t="s">
-        <v>297</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>242</v>
+        <v>265</v>
       </c>
       <c r="C48" s="9"/>
-      <c r="D48" s="9"/>
+      <c r="D48" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="9" t="s">
-        <v>186</v>
+        <v>215</v>
       </c>
       <c r="I48">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
-        <v>204</v>
+        <v>87</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C49" s="9"/>
       <c r="D49" s="9"/>
@@ -2530,71 +2608,77 @@
       </c>
       <c r="H49" s="9"/>
       <c r="I49">
-        <v>777.6</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+        <v>1000</v>
+      </c>
+      <c r="J49" s="14">
+        <v>1300</v>
+      </c>
+      <c r="L49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
-        <v>87</v>
+        <v>216</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="F50" s="9"/>
-      <c r="G50" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="C51" s="9"/>
+        <v>268</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
-      <c r="G51" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="G51" s="9"/>
       <c r="H51" s="9"/>
       <c r="I51">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
-        <v>170</v>
+        <v>218</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>224</v>
+        <v>269</v>
       </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
+      <c r="D52" s="9" t="s">
+        <v>165</v>
+      </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
-      <c r="G52" s="9" t="s">
-        <v>165</v>
-      </c>
+      <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>291</v>
+        <v>166</v>
       </c>
       <c r="I52">
-        <v>2750</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <sortState ref="A2:L52">
-    <sortCondition ref="I1"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3297,7 +3381,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="H15:M15"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3823,7 +3907,7 @@
   <dimension ref="A1:F4104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="A1:F1"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -86365,7 +86449,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9906BD9B-6063-344D-BB5E-9397C103E1EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B707C3D2-3805-CF4E-9163-D580BB98D781}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3640" yWindow="1260" windowWidth="26820" windowHeight="14420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4460" yWindow="2560" windowWidth="27200" windowHeight="17060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
-    <sheet name="polls" sheetId="9" r:id="rId2"/>
-    <sheet name="arrests" sheetId="10" r:id="rId3"/>
-    <sheet name="convictions" sheetId="11" r:id="rId4"/>
-    <sheet name="race" sheetId="1" r:id="rId5"/>
-    <sheet name="pettys" sheetId="2" r:id="rId6"/>
-    <sheet name="dispensaries" sheetId="7" r:id="rId7"/>
-    <sheet name="source" sheetId="5" r:id="rId8"/>
-    <sheet name="layout" sheetId="6" r:id="rId9"/>
+    <sheet name="revenue" sheetId="12" r:id="rId2"/>
+    <sheet name="polls" sheetId="9" r:id="rId3"/>
+    <sheet name="arrests" sheetId="10" r:id="rId4"/>
+    <sheet name="convictions" sheetId="11" r:id="rId5"/>
+    <sheet name="race" sheetId="1" r:id="rId6"/>
+    <sheet name="pettys" sheetId="2" r:id="rId7"/>
+    <sheet name="dispensaries" sheetId="7" r:id="rId8"/>
+    <sheet name="source" sheetId="5" r:id="rId9"/>
+    <sheet name="layout" sheetId="6" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12772" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12861" uniqueCount="343">
   <si>
     <t>Case_Count</t>
   </si>
@@ -925,9 +926,6 @@
     <t>Recreational sales regulations pending, decriminalized</t>
   </si>
   <si>
-    <t>REVENUE_MILLIONS</t>
-  </si>
-  <si>
     <t>revenue</t>
   </si>
   <si>
@@ -1047,11 +1045,38 @@
   <si>
     <t>https://www.ktuu.com/content/news/Marijuana-tax-revenue-for-FY18-exceeds-states-predictions-489793151.html</t>
   </si>
+  <si>
+    <t>REVENUE</t>
+  </si>
+  <si>
+    <t>SOURCE</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Source of numbers</t>
+  </si>
+  <si>
+    <t>Marijuana industry annual sales by state</t>
+  </si>
+  <si>
+    <t>https://www.mercurynews.com/2019/02/19/california-made-345-million-not-predicted-1-billion-on-legal-cannabis-in-2018/</t>
+  </si>
+  <si>
+    <t>https://www.colorado.gov/pacific/revenue/colorado-marijuana-tax-data</t>
+  </si>
+  <si>
+    <t>https://www.tre.wa.gov/portfolio-item/washington-state-marijuana-revenues-and-health/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1107,18 +1132,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1175,8 +1194,8 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1532,10 +1551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BAE6105-103E-2847-B3C1-FB91C0EB3849}">
-  <dimension ref="A1:L52"/>
+  <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1547,11 +1566,9 @@
     <col min="5" max="5" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="54.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>157</v>
       </c>
@@ -1577,19 +1594,13 @@
         <v>163</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>296</v>
-      </c>
-      <c r="K1" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
         <v>164</v>
       </c>
@@ -1606,11 +1617,8 @@
       <c r="H2" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
         <v>167</v>
       </c>
@@ -1625,14 +1633,11 @@
         <v>165</v>
       </c>
       <c r="H3" s="9"/>
-      <c r="I3">
-        <v>39.5</v>
-      </c>
-      <c r="L3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
         <v>168</v>
       </c>
@@ -1648,19 +1653,13 @@
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
       <c r="I4">
-        <v>406.7</v>
-      </c>
-      <c r="J4" s="14">
-        <v>400</v>
-      </c>
-      <c r="K4">
         <v>2018</v>
       </c>
-      <c r="L4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
         <v>169</v>
       </c>
@@ -1675,11 +1674,8 @@
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
         <v>170</v>
       </c>
@@ -1697,19 +1693,13 @@
         <v>291</v>
       </c>
       <c r="I6">
-        <v>2750</v>
-      </c>
-      <c r="J6" s="14">
-        <v>6000</v>
-      </c>
-      <c r="K6">
         <v>2017</v>
       </c>
-      <c r="L6" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J6" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
         <v>171</v>
       </c>
@@ -1725,19 +1715,13 @@
       </c>
       <c r="H7" s="9"/>
       <c r="I7">
-        <v>1560</v>
-      </c>
-      <c r="J7" s="14">
-        <v>1500</v>
-      </c>
-      <c r="K7">
         <v>2017</v>
       </c>
-      <c r="L7" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
         <v>172</v>
       </c>
@@ -1754,11 +1738,8 @@
       <c r="H8" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
         <v>173</v>
       </c>
@@ -1775,11 +1756,8 @@
       <c r="H9" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I9">
-        <v>7.1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
         <v>174</v>
       </c>
@@ -1794,11 +1772,8 @@
       </c>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
-      <c r="I10">
-        <v>17.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
         <v>175</v>
       </c>
@@ -1813,11 +1788,8 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
-      <c r="I11">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
         <v>176</v>
       </c>
@@ -1834,11 +1806,8 @@
       <c r="H12" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
         <v>177</v>
       </c>
@@ -1854,19 +1823,13 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13">
-        <v>17.2</v>
-      </c>
-      <c r="J13" s="14">
-        <v>1.3</v>
-      </c>
-      <c r="K13">
         <v>2017</v>
       </c>
-      <c r="L13" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J13" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
         <v>178</v>
       </c>
@@ -1881,11 +1844,8 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
         <v>179</v>
       </c>
@@ -1900,11 +1860,8 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
-      <c r="I15">
-        <v>91.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A16" s="9" t="s">
         <v>180</v>
       </c>
@@ -1921,11 +1878,8 @@
       <c r="H16" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A17" s="9" t="s">
         <v>181</v>
       </c>
@@ -1942,11 +1896,8 @@
       <c r="H17" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A18" s="9" t="s">
         <v>182</v>
       </c>
@@ -1961,11 +1912,8 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
-      <c r="I18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A19" s="9" t="s">
         <v>183</v>
       </c>
@@ -1982,11 +1930,8 @@
       <c r="H19" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A20" s="9" t="s">
         <v>184</v>
       </c>
@@ -2001,11 +1946,8 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="9"/>
-      <c r="I20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A21" s="9" t="s">
         <v>185</v>
       </c>
@@ -2022,11 +1964,8 @@
       <c r="H21" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="I21">
-        <v>83.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A22" s="9" t="s">
         <v>187</v>
       </c>
@@ -2043,11 +1982,8 @@
       <c r="H22" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A23" s="9" t="s">
         <v>188</v>
       </c>
@@ -2064,11 +2000,8 @@
       <c r="H23" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I23">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A24" s="9" t="s">
         <v>189</v>
       </c>
@@ -2085,11 +2018,8 @@
       <c r="H24" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="I24">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A25" s="9" t="s">
         <v>190</v>
       </c>
@@ -2106,11 +2036,8 @@
       <c r="H25" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I25">
-        <v>9.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A26" s="9" t="s">
         <v>191</v>
       </c>
@@ -2127,11 +2054,8 @@
       <c r="H26" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A27" s="9" t="s">
         <v>192</v>
       </c>
@@ -2146,11 +2070,8 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="9"/>
-      <c r="I27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A28" s="9" t="s">
         <v>193</v>
       </c>
@@ -2165,11 +2086,8 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
-      <c r="I28">
-        <v>31.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A29" s="9" t="s">
         <v>194</v>
       </c>
@@ -2186,11 +2104,8 @@
       <c r="H29" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A30" s="9" t="s">
         <v>195</v>
       </c>
@@ -2207,17 +2122,11 @@
       <c r="H30" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I30">
-        <v>102.7</v>
-      </c>
-      <c r="J30" s="14">
-        <v>500</v>
-      </c>
-      <c r="L30" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J30" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A31" s="9" t="s">
         <v>196</v>
       </c>
@@ -2232,11 +2141,8 @@
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
-      <c r="I31">
-        <v>7.2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A32" s="9" t="s">
         <v>197</v>
       </c>
@@ -2251,11 +2157,8 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
-      <c r="I32">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A33" s="9" t="s">
         <v>198</v>
       </c>
@@ -2270,11 +2173,8 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="9"/>
-      <c r="I33">
-        <v>54.2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A34" s="9" t="s">
         <v>199</v>
       </c>
@@ -2292,19 +2192,13 @@
         <v>291</v>
       </c>
       <c r="I34">
-        <v>40.9</v>
-      </c>
-      <c r="J34" s="14">
-        <v>0.6</v>
-      </c>
-      <c r="K34">
         <v>2017</v>
       </c>
-      <c r="L34" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J34" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A35" s="9" t="s">
         <v>200</v>
       </c>
@@ -2321,11 +2215,8 @@
       <c r="H35" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A36" s="9" t="s">
         <v>201</v>
       </c>
@@ -2340,11 +2231,8 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
-      <c r="I36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A37" s="9" t="s">
         <v>202</v>
       </c>
@@ -2361,11 +2249,8 @@
       <c r="H37" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A38" s="9" t="s">
         <v>203</v>
       </c>
@@ -2380,11 +2265,8 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
-      <c r="I38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A39" s="9" t="s">
         <v>204</v>
       </c>
@@ -2399,17 +2281,11 @@
         <v>165</v>
       </c>
       <c r="H39" s="9"/>
-      <c r="I39">
-        <v>777.6</v>
-      </c>
-      <c r="J39" s="14">
-        <v>520</v>
-      </c>
-      <c r="L39" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A40" s="9" t="s">
         <v>205</v>
       </c>
@@ -2424,11 +2300,8 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
-      <c r="I40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A41" s="9" t="s">
         <v>206</v>
       </c>
@@ -2445,11 +2318,8 @@
       <c r="H41" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="I41">
-        <v>60.2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A42" s="9" t="s">
         <v>207</v>
       </c>
@@ -2466,11 +2336,8 @@
       <c r="H42" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A43" s="9" t="s">
         <v>208</v>
       </c>
@@ -2485,11 +2352,8 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
-      <c r="I43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A44" s="9" t="s">
         <v>209</v>
       </c>
@@ -2506,11 +2370,8 @@
       <c r="H44" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="I44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A45" s="9" t="s">
         <v>211</v>
       </c>
@@ -2527,11 +2388,8 @@
       <c r="H45" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A46" s="9" t="s">
         <v>212</v>
       </c>
@@ -2546,11 +2404,8 @@
       <c r="F46" s="9"/>
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
-      <c r="I46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A47" s="9" t="s">
         <v>213</v>
       </c>
@@ -2567,11 +2422,8 @@
       <c r="H47" s="9" t="s">
         <v>293</v>
       </c>
-      <c r="I47">
-        <v>15.9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A48" s="9" t="s">
         <v>214</v>
       </c>
@@ -2588,11 +2440,8 @@
       <c r="H48" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A49" s="9" t="s">
         <v>87</v>
       </c>
@@ -2607,17 +2456,11 @@
         <v>165</v>
       </c>
       <c r="H49" s="9"/>
-      <c r="I49">
-        <v>1000</v>
-      </c>
-      <c r="J49" s="14">
-        <v>1300</v>
-      </c>
-      <c r="L49" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="J49" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A50" s="9" t="s">
         <v>216</v>
       </c>
@@ -2632,11 +2475,8 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
-      <c r="I50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A51" s="9" t="s">
         <v>217</v>
       </c>
@@ -2651,11 +2491,8 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="9"/>
-      <c r="I51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A52" s="9" t="s">
         <v>218</v>
       </c>
@@ -2672,24 +2509,545 @@
       <c r="H52" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:L52">
+  <sortState ref="A2:J52">
     <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBA27AF-D291-7D48-961F-A16DAFC08646}">
-  <dimension ref="A1:C21"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A2:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:A31"/>
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>219</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A12" s="8" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>335</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A16" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B24" s="9"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>289</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A28" s="9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A29" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A33" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A37" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A39" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A40" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A41" t="s">
+        <v>93</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>99</v>
+      </c>
+      <c r="B47" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>100</v>
+      </c>
+      <c r="B48" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A49" s="9" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B50" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="B51" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>101</v>
+      </c>
+      <c r="B53" t="s">
+        <v>128</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1DB733-BC4F-DA42-AC4F-A9E4C0D196C0}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="13">
+        <v>345</v>
+      </c>
+      <c r="D2">
+        <v>2018</v>
+      </c>
+      <c r="E2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="14">
+        <v>319</v>
+      </c>
+      <c r="D3">
+        <v>2017</v>
+      </c>
+      <c r="E3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="13">
+        <v>266</v>
+      </c>
+      <c r="D4">
+        <v>2018</v>
+      </c>
+      <c r="E4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="C5" s="13">
+        <v>70</v>
+      </c>
+      <c r="D5">
+        <v>2018</v>
+      </c>
+      <c r="E5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="C6" s="13">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>2018</v>
+      </c>
+      <c r="E6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>256</v>
+      </c>
+      <c r="C7" s="14">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="D7">
+        <v>2018</v>
+      </c>
+      <c r="E7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:E7">
+    <sortCondition descending="1" ref="C1"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CBA27AF-D291-7D48-961F-A16DAFC08646}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2707,10 +3065,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>2000</v>
-      </c>
-      <c r="B2" s="10">
-        <v>0.31</v>
+        <v>1970</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.12</v>
       </c>
       <c r="C2" s="11" t="s">
         <v>283</v>
@@ -2718,7 +3076,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2001</v>
+        <v>1971</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>283</v>
@@ -2729,7 +3087,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2002</v>
+        <v>1972</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>283</v>
@@ -2740,10 +3098,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2003</v>
-      </c>
-      <c r="B5" s="10">
-        <v>0.34</v>
+        <v>1973</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.16</v>
       </c>
       <c r="C5" s="11" t="s">
         <v>283</v>
@@ -2751,7 +3109,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2004</v>
+        <v>1974</v>
       </c>
       <c r="B6" s="11" t="s">
         <v>283</v>
@@ -2762,10 +3120,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>2005</v>
-      </c>
-      <c r="B7" s="10">
-        <v>0.36</v>
+        <v>1975</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="C7" s="11" t="s">
         <v>283</v>
@@ -2773,7 +3131,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>2006</v>
+        <v>1976</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>283</v>
@@ -2784,10 +3142,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>2007</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>283</v>
+        <v>1977</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.28000000000000003</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>283</v>
@@ -2795,7 +3153,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10">
-        <v>2008</v>
+        <v>1978</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>283</v>
@@ -2806,76 +3164,76 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11">
-        <v>2009</v>
+        <v>1979</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C11" s="10">
-        <v>0.4</v>
+      <c r="C11" s="11" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12">
-        <v>2010</v>
-      </c>
-      <c r="B12" s="10">
-        <v>0.46</v>
-      </c>
-      <c r="C12" s="10">
-        <v>0.41</v>
+        <v>1980</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13">
-        <v>2011</v>
+        <v>1981</v>
       </c>
       <c r="B13" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="C13" s="10">
-        <v>0.54</v>
+      <c r="C13" s="11" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14">
-        <v>2012</v>
-      </c>
-      <c r="B14" s="10">
-        <v>0.48</v>
-      </c>
-      <c r="C14" s="10">
-        <v>0.44</v>
+        <v>1982</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15">
-        <v>2013</v>
-      </c>
-      <c r="B15" s="10">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="C15" s="10">
-        <v>0.57999999999999996</v>
+        <v>1983</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16">
-        <v>2014</v>
-      </c>
-      <c r="B16" s="10">
-        <v>0.51</v>
-      </c>
-      <c r="C16" s="10">
-        <v>0.45</v>
+        <v>1984</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17">
-        <v>2015</v>
-      </c>
-      <c r="B17" s="10">
-        <v>0.57999999999999996</v>
+        <v>1985</v>
+      </c>
+      <c r="B17" s="8">
+        <v>0.23</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>283</v>
@@ -2883,7 +3241,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18">
-        <v>2016</v>
+        <v>1986</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>283</v>
@@ -2894,10 +3252,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19">
-        <v>2017</v>
-      </c>
-      <c r="B19" s="10">
-        <v>0.64</v>
+        <v>1987</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>283</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>283</v>
@@ -2905,23 +3263,353 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20">
-        <v>2018</v>
-      </c>
-      <c r="B20" s="10">
-        <v>0.66</v>
-      </c>
-      <c r="C20" s="10">
-        <v>0.65</v>
+        <v>1988</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A21">
-        <v>2019</v>
+        <v>1989</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>283</v>
       </c>
       <c r="C21" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>1990</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>1991</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>1992</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>1993</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>1994</v>
+      </c>
+      <c r="B26" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>1995</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>1996</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>1997</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>1998</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>1999</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="10">
+        <v>0.31</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>2001</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>2002</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>2003</v>
+      </c>
+      <c r="B35" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>2004</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>2005</v>
+      </c>
+      <c r="B37" s="10">
+        <v>0.36</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>2006</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>2007</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>2008</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>2009</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C41" s="10">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>2010</v>
+      </c>
+      <c r="B42" s="10">
+        <v>0.46</v>
+      </c>
+      <c r="C42" s="10">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>2011</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C43" s="10">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>2012</v>
+      </c>
+      <c r="B44" s="10">
+        <v>0.48</v>
+      </c>
+      <c r="C44" s="10">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>2013</v>
+      </c>
+      <c r="B45" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>2014</v>
+      </c>
+      <c r="B46" s="10">
+        <v>0.51</v>
+      </c>
+      <c r="C46" s="10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>2015</v>
+      </c>
+      <c r="B47" s="10">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>2016</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>2017</v>
+      </c>
+      <c r="B49" s="10">
+        <v>0.64</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>2018</v>
+      </c>
+      <c r="B50" s="10">
+        <v>0.66</v>
+      </c>
+      <c r="C50" s="10">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C51" s="11" t="s">
         <v>283</v>
       </c>
     </row>
@@ -2930,7 +3618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94908333-B038-DB43-B797-9CADC2229BB6}">
   <dimension ref="A1:F21"/>
   <sheetViews>
@@ -2948,16 +3636,16 @@
         <v>289</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -3376,7 +4064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9D2FF-023F-5446-8DE3-2F6EE8BCFA6F}">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -3476,7 +4164,7 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -3493,7 +4181,7 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="L4">
         <v>19</v>
@@ -3507,7 +4195,7 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H5">
         <v>11</v>
@@ -3533,7 +4221,7 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -3550,7 +4238,7 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="H7">
         <v>19</v>
@@ -3576,7 +4264,7 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H8">
         <v>11</v>
@@ -3602,7 +4290,7 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="H9">
         <v>50</v>
@@ -3628,7 +4316,7 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="K10">
         <v>156</v>
@@ -3674,7 +4362,7 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H12">
         <v>3775</v>
@@ -3700,7 +4388,7 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H13">
         <v>15</v>
@@ -3726,7 +4414,7 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H14">
         <v>4</v>
@@ -3778,7 +4466,7 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="H16">
         <v>134</v>
@@ -3804,7 +4492,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H17">
         <v>6871</v>
@@ -3830,7 +4518,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="H18">
         <v>7</v>
@@ -3847,7 +4535,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H19">
         <v>7</v>
@@ -3902,7 +4590,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4104"/>
   <sheetViews>
@@ -86003,7 +86691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N6"/>
   <sheetViews>
@@ -86248,7 +86936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69DF53AB-C788-8D47-81A3-6CDF1DE4D8EA}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -86445,12 +87133,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -86461,7 +87149,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -86488,430 +87176,99 @@
     </row>
     <row r="8" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>285</v>
+        <v>339</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>309</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>310</v>
+        <v>285</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
+        <v>297</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="B10" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
+      <c r="B11" s="9" t="s">
+        <v>325</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
         <v>111</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="C13" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B14" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A18" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>327</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A2:B46"/>
-  <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="8" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>157</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>219</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>159</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>160</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>161</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A9" t="s">
-        <v>162</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A10" t="s">
-        <v>163</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="8" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A16" s="9"/>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A17" s="8" t="s">
-        <v>308</v>
-      </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A18" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A19" s="9" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A20" s="9" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A21" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A22" s="9" t="s">
-        <v>298</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A26" t="s">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A27" t="s">
-        <v>2</v>
-      </c>
-      <c r="B27" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A29" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A30" t="s">
-        <v>5</v>
-      </c>
-      <c r="B30" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A33" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A34" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A38" t="s">
-        <v>97</v>
-      </c>
-      <c r="B38" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A39" t="s">
-        <v>98</v>
-      </c>
-      <c r="B39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A40" t="s">
-        <v>99</v>
-      </c>
-      <c r="B40" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A41" t="s">
-        <v>100</v>
-      </c>
-      <c r="B41" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A45" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A46" t="s">
-        <v>101</v>
-      </c>
-      <c r="B46" t="s">
-        <v>128</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B707C3D2-3805-CF4E-9163-D580BB98D781}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544226C2-F6EE-0144-A23A-74E3CE51226D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4460" yWindow="2560" windowWidth="27200" windowHeight="17060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2910,7 +2910,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2985,53 +2985,53 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="C5" s="13">
-        <v>70</v>
+        <v>256</v>
+      </c>
+      <c r="C5" s="14">
+        <v>82.2</v>
       </c>
       <c r="D5">
         <v>2018</v>
       </c>
       <c r="E5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="C6" s="13">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="D6">
         <v>2018</v>
       </c>
       <c r="E6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="C7" s="14">
-        <v>8.6999999999999993</v>
+        <v>221</v>
+      </c>
+      <c r="C7" s="13">
+        <v>11</v>
       </c>
       <c r="D7">
         <v>2018</v>
       </c>
       <c r="E7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{544226C2-F6EE-0144-A23A-74E3CE51226D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB721DEF-FB6A-7049-9A3B-9423AC8FCA71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4460" yWindow="2560" windowWidth="27200" windowHeight="17060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="27200" windowHeight="17060" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12861" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12871" uniqueCount="351">
   <si>
     <t>Case_Count</t>
   </si>
@@ -1069,6 +1069,30 @@
   <si>
     <t>https://www.tre.wa.gov/portfolio-item/washington-state-marijuana-revenues-and-health/</t>
   </si>
+  <si>
+    <t>Race of Minnesota 2016 marijuana offenders compared to population</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>hispanic</t>
+  </si>
+  <si>
+    <t>native</t>
+  </si>
+  <si>
+    <t>asian</t>
+  </si>
+  <si>
+    <t>Source: Minnesota Sentencing Guidlines Commission</t>
+  </si>
 </sst>
 </file>
 
@@ -1077,7 +1101,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1131,6 +1155,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1168,7 +1200,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1196,6 +1228,9 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="6" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="17">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2909,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1DB733-BC4F-DA42-AC4F-A9E4C0D196C0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3623,7 +3658,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4066,522 +4101,483 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F9D2FF-023F-5446-8DE3-2F6EE8BCFA6F}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="H20" sqref="A1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
         <v>280</v>
       </c>
       <c r="B1" s="8">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="C1" s="8">
-        <v>2008</v>
+        <v>2014</v>
       </c>
       <c r="D1" s="8">
-        <v>2009</v>
+        <v>2015</v>
       </c>
       <c r="E1" s="8">
-        <v>2010</v>
+        <v>2016</v>
       </c>
       <c r="F1" s="8">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="G1" s="8">
-        <v>2012</v>
-      </c>
-      <c r="H1" s="8">
-        <v>2013</v>
-      </c>
-      <c r="I1" s="8">
-        <v>2014</v>
-      </c>
-      <c r="J1" s="8">
-        <v>2015</v>
-      </c>
-      <c r="K1" s="8">
-        <v>2016</v>
-      </c>
-      <c r="L1" s="8">
-        <v>2017</v>
-      </c>
-      <c r="M1" s="8">
         <v>2018</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="8">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="C2" s="8">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D2" s="8">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="E2" s="8">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="F2" s="8">
-        <v>0</v>
+        <v>657</v>
       </c>
       <c r="G2" s="8">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="H2" s="8">
-        <v>91</v>
-      </c>
-      <c r="I2" s="8">
-        <v>90</v>
-      </c>
-      <c r="J2" s="8">
-        <v>71</v>
-      </c>
-      <c r="K2" s="8">
-        <v>247</v>
-      </c>
-      <c r="L2" s="8">
-        <v>657</v>
-      </c>
-      <c r="M2" s="8">
-        <v>747</v>
-      </c>
-      <c r="N2" s="8">
         <v>1903</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>313</v>
       </c>
-      <c r="K3">
+      <c r="E3">
         <v>4</v>
       </c>
-      <c r="L3">
+      <c r="F3">
         <v>17</v>
       </c>
-      <c r="M3">
+      <c r="G3">
         <v>41</v>
       </c>
-      <c r="N3">
+      <c r="H3">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>314</v>
       </c>
-      <c r="L4">
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="M4">
+      <c r="G4">
         <v>13</v>
       </c>
-      <c r="N4">
+      <c r="H4">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>315</v>
       </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>22</v>
+      </c>
+      <c r="G5">
+        <v>32</v>
+      </c>
       <c r="H5">
-        <v>11</v>
-      </c>
-      <c r="I5">
-        <v>5</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>11</v>
-      </c>
-      <c r="L5">
-        <v>22</v>
-      </c>
-      <c r="M5">
-        <v>32</v>
-      </c>
-      <c r="N5">
         <v>84</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>316</v>
       </c>
-      <c r="K6">
+      <c r="E6">
         <v>3</v>
       </c>
-      <c r="L6">
+      <c r="F6">
         <v>19</v>
       </c>
-      <c r="M6">
+      <c r="G6">
         <v>18</v>
       </c>
-      <c r="N6">
+      <c r="H6">
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>317</v>
       </c>
+      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>16</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>22</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
       <c r="H7">
-        <v>19</v>
-      </c>
-      <c r="I7">
-        <v>16</v>
-      </c>
-      <c r="J7">
-        <v>13</v>
-      </c>
-      <c r="K7">
-        <v>14</v>
-      </c>
-      <c r="L7">
-        <v>22</v>
-      </c>
-      <c r="M7">
-        <v>27</v>
-      </c>
-      <c r="N7">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>318</v>
       </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>24</v>
+      </c>
       <c r="H8">
-        <v>11</v>
-      </c>
-      <c r="I8">
-        <v>11</v>
-      </c>
-      <c r="J8">
-        <v>18</v>
-      </c>
-      <c r="K8">
-        <v>15</v>
-      </c>
-      <c r="L8">
-        <v>24</v>
-      </c>
-      <c r="M8">
-        <v>24</v>
-      </c>
-      <c r="N8">
         <v>103</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>319</v>
       </c>
+      <c r="B9">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>58</v>
+      </c>
+      <c r="D9">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>34</v>
+      </c>
+      <c r="G9">
+        <v>40</v>
+      </c>
       <c r="H9">
-        <v>50</v>
-      </c>
-      <c r="I9">
-        <v>58</v>
-      </c>
-      <c r="J9">
-        <v>37</v>
-      </c>
-      <c r="K9">
-        <v>44</v>
-      </c>
-      <c r="L9">
-        <v>34</v>
-      </c>
-      <c r="M9">
-        <v>40</v>
-      </c>
-      <c r="N9">
         <v>263</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>320</v>
       </c>
-      <c r="K10">
+      <c r="E10">
         <v>156</v>
       </c>
-      <c r="L10">
+      <c r="F10">
         <v>500</v>
       </c>
-      <c r="M10">
+      <c r="G10">
         <v>552</v>
       </c>
-      <c r="N10">
+      <c r="H10">
         <v>1208</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E11"/>
-      <c r="F11"/>
-      <c r="G11"/>
+      <c r="B11" s="8">
+        <v>3794</v>
+      </c>
+      <c r="C11" s="8">
+        <v>3910</v>
+      </c>
+      <c r="D11" s="8">
+        <v>4304</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4288</v>
+      </c>
+      <c r="F11" s="8">
+        <v>4556</v>
+      </c>
+      <c r="G11" s="8">
+        <v>4534</v>
+      </c>
       <c r="H11" s="8">
-        <v>3794</v>
-      </c>
-      <c r="I11" s="8">
-        <v>3910</v>
-      </c>
-      <c r="J11" s="8">
-        <v>4304</v>
-      </c>
-      <c r="K11" s="8">
-        <v>4288</v>
-      </c>
-      <c r="L11" s="8">
-        <v>4556</v>
-      </c>
-      <c r="M11" s="8">
-        <v>4534</v>
-      </c>
-      <c r="N11" s="8">
         <v>25386</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>321</v>
       </c>
+      <c r="B12">
+        <v>3775</v>
+      </c>
+      <c r="C12">
+        <v>3879</v>
+      </c>
+      <c r="D12">
+        <v>4259</v>
+      </c>
+      <c r="E12">
+        <v>4225</v>
+      </c>
+      <c r="F12">
+        <v>4481</v>
+      </c>
+      <c r="G12">
+        <v>4461</v>
+      </c>
       <c r="H12">
-        <v>3775</v>
-      </c>
-      <c r="I12">
-        <v>3879</v>
-      </c>
-      <c r="J12">
-        <v>4259</v>
-      </c>
-      <c r="K12">
-        <v>4225</v>
-      </c>
-      <c r="L12">
-        <v>4481</v>
-      </c>
-      <c r="M12">
-        <v>4461</v>
-      </c>
-      <c r="N12">
         <v>25080</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>322</v>
       </c>
+      <c r="B13">
+        <v>15</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13">
+        <v>26</v>
+      </c>
+      <c r="E13">
+        <v>32</v>
+      </c>
+      <c r="F13">
+        <v>38</v>
+      </c>
+      <c r="G13">
+        <v>42</v>
+      </c>
       <c r="H13">
-        <v>15</v>
-      </c>
-      <c r="I13">
-        <v>25</v>
-      </c>
-      <c r="J13">
-        <v>26</v>
-      </c>
-      <c r="K13">
-        <v>32</v>
-      </c>
-      <c r="L13">
-        <v>38</v>
-      </c>
-      <c r="M13">
-        <v>42</v>
-      </c>
-      <c r="N13">
         <v>178</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>323</v>
       </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>19</v>
+      </c>
+      <c r="E14">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>37</v>
+      </c>
+      <c r="G14">
+        <v>31</v>
+      </c>
       <c r="H14">
-        <v>4</v>
-      </c>
-      <c r="I14">
-        <v>6</v>
-      </c>
-      <c r="J14">
-        <v>19</v>
-      </c>
-      <c r="K14">
-        <v>31</v>
-      </c>
-      <c r="L14">
-        <v>37</v>
-      </c>
-      <c r="M14">
-        <v>31</v>
-      </c>
-      <c r="N14">
         <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="8" t="s">
         <v>105</v>
       </c>
+      <c r="B15" s="8">
+        <v>7019</v>
+      </c>
+      <c r="C15" s="8">
+        <v>7088</v>
+      </c>
+      <c r="D15" s="8">
+        <v>7351</v>
+      </c>
+      <c r="E15" s="8">
+        <v>7246</v>
+      </c>
+      <c r="F15" s="8">
+        <v>7561</v>
+      </c>
+      <c r="G15" s="8">
+        <v>7012</v>
+      </c>
       <c r="H15" s="8">
-        <v>7019</v>
-      </c>
-      <c r="I15" s="8">
-        <v>7088</v>
-      </c>
-      <c r="J15" s="8">
-        <v>7351</v>
-      </c>
-      <c r="K15" s="8">
-        <v>7246</v>
-      </c>
-      <c r="L15" s="8">
-        <v>7561</v>
-      </c>
-      <c r="M15" s="8">
-        <v>7012</v>
-      </c>
-      <c r="N15" s="8">
         <v>43277</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>321</v>
       </c>
+      <c r="B16">
+        <v>134</v>
+      </c>
+      <c r="C16">
+        <v>56</v>
+      </c>
+      <c r="D16">
+        <v>28</v>
+      </c>
+      <c r="E16">
+        <v>28</v>
+      </c>
+      <c r="F16">
+        <v>30</v>
+      </c>
+      <c r="G16">
+        <v>32</v>
+      </c>
       <c r="H16">
-        <v>134</v>
-      </c>
-      <c r="I16">
-        <v>56</v>
-      </c>
-      <c r="J16">
-        <v>28</v>
-      </c>
-      <c r="K16">
-        <v>28</v>
-      </c>
-      <c r="L16">
-        <v>30</v>
-      </c>
-      <c r="M16">
-        <v>32</v>
-      </c>
-      <c r="N16">
         <v>308</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>324</v>
       </c>
+      <c r="B17">
+        <v>6871</v>
+      </c>
+      <c r="C17">
+        <v>7025</v>
+      </c>
+      <c r="D17">
+        <v>7321</v>
+      </c>
+      <c r="E17">
+        <v>7217</v>
+      </c>
+      <c r="F17">
+        <v>7529</v>
+      </c>
+      <c r="G17">
+        <v>6976</v>
+      </c>
       <c r="H17">
-        <v>6871</v>
-      </c>
-      <c r="I17">
-        <v>7025</v>
-      </c>
-      <c r="J17">
-        <v>7321</v>
-      </c>
-      <c r="K17">
-        <v>7217</v>
-      </c>
-      <c r="L17">
-        <v>7529</v>
-      </c>
-      <c r="M17">
-        <v>6976</v>
-      </c>
-      <c r="N17">
         <v>42939</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>322</v>
       </c>
+      <c r="B18">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
       <c r="H18">
-        <v>7</v>
-      </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="N18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>323</v>
       </c>
+      <c r="B19">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
       <c r="H19">
-        <v>7</v>
-      </c>
-      <c r="I19">
-        <v>5</v>
-      </c>
-      <c r="J19">
-        <v>2</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>4</v>
-      </c>
-      <c r="N19">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8" t="s">
         <v>106</v>
       </c>
+      <c r="B20" s="8">
+        <v>10904</v>
+      </c>
+      <c r="C20" s="8">
+        <v>11088</v>
+      </c>
+      <c r="D20" s="8">
+        <v>11726</v>
+      </c>
+      <c r="E20" s="8">
+        <v>11781</v>
+      </c>
+      <c r="F20" s="8">
+        <v>12774</v>
+      </c>
+      <c r="G20" s="8">
+        <v>12293</v>
+      </c>
       <c r="H20" s="8">
-        <v>10904</v>
-      </c>
-      <c r="I20" s="8">
-        <v>11088</v>
-      </c>
-      <c r="J20" s="8">
-        <v>11726</v>
-      </c>
-      <c r="K20" s="8">
-        <v>11781</v>
-      </c>
-      <c r="L20" s="8">
-        <v>12774</v>
-      </c>
-      <c r="M20" s="8">
-        <v>12293</v>
-      </c>
-      <c r="N20" s="8">
         <v>70566</v>
       </c>
     </row>
@@ -4592,15 +4588,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F4104"/>
+  <dimension ref="A1:N4104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4620,7 +4616,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>6</v>
       </c>
@@ -4639,8 +4635,16 @@
       <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I2" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>6</v>
       </c>
@@ -4659,8 +4663,14 @@
       <c r="F3" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="15"/>
+      <c r="N3" s="15"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -4679,8 +4689,20 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I4" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>47</v>
       </c>
@@ -4699,8 +4721,20 @@
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I5" s="15" t="s">
+        <v>345</v>
+      </c>
+      <c r="J5" s="17">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K5" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+    </row>
+    <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>56</v>
       </c>
@@ -4719,8 +4753,20 @@
       <c r="F6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I6" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="J6" s="17">
+        <v>0.24</v>
+      </c>
+      <c r="K6" s="17">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+    </row>
+    <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>20</v>
       </c>
@@ -4739,8 +4785,20 @@
       <c r="F7" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I7" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="J7" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="K7" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+    </row>
+    <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>371</v>
       </c>
@@ -4759,8 +4817,20 @@
       <c r="F8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I8" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="J8" s="17">
+        <v>0.01</v>
+      </c>
+      <c r="K8" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+    </row>
+    <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -4779,8 +4849,20 @@
       <c r="F9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I9" s="15" t="s">
+        <v>349</v>
+      </c>
+      <c r="J9" s="17">
+        <v>0.05</v>
+      </c>
+      <c r="K9" s="17">
+        <v>0.06</v>
+      </c>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+    </row>
+    <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>31</v>
       </c>
@@ -4799,8 +4881,14 @@
       <c r="F10" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+    </row>
+    <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -4819,8 +4907,16 @@
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="I11" s="15" t="s">
+        <v>350</v>
+      </c>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="15"/>
+      <c r="N11" s="15"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -4840,7 +4936,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>29</v>
       </c>
@@ -4860,7 +4956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>1</v>
       </c>
@@ -4880,7 +4976,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -4900,7 +4996,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>4</v>
       </c>

--- a/sources/data/maindata.xlsx
+++ b/sources/data/maindata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hargaja/Desktop/workspace/enterprise/20190228-weed/sources/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB721DEF-FB6A-7049-9A3B-9423AC8FCA71}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A63995E-EFD7-634B-A14A-BFB0B0ADB6EA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1080" windowWidth="27200" windowHeight="17060" tabRatio="500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="27200" windowHeight="17060" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="states" sheetId="8" r:id="rId1"/>
@@ -2944,8 +2944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F1DB733-BC4F-DA42-AC4F-A9E4C0D196C0}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="A1:E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4590,7 +4590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N4104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
